--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_26.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1638004.118563502</v>
+        <v>1646697.444851143</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584666</v>
+        <v>460545.8926584668</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.110075582</v>
+        <v>8768687.110075578</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>75.08620022294134</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,16 +701,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>95.15725758733777</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>79.36434637938949</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>168.1666138174382</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G5" t="n">
-        <v>190.3453970742847</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,25 +972,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>44.16343725408909</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>86.56159496964948</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>71.01467844038818</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>98.74855378848305</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,19 +1209,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>68.04417457389316</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>91.10706346981459</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1309,37 +1309,37 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1415,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>33.60488476018983</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
         <v>251.2485578939812</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>377.6861974687584</v>
       </c>
     </row>
     <row r="12">
@@ -1455,13 +1455,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>76.32943916025816</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
         <v>105.9637990594094</v>
@@ -1497,7 +1497,7 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>197.5472709665096</v>
@@ -1506,7 +1506,7 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>29.34281600071414</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>199.2380028109538</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8067726729967</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1658,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1731,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
         <v>225.8986597023843</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>29.34281600071414</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>36.48436605884934</v>
+        <v>36.48436605884923</v>
       </c>
       <c r="G16" t="n">
         <v>167.4465608509556</v>
@@ -1786,7 +1786,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620181</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>24.97975510385934</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>96.78116836370016</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1929,19 +1929,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6941370086349</v>
+        <v>76.32943916025816</v>
       </c>
       <c r="H18" t="n">
-        <v>29.38391736390409</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T18" t="n">
         <v>197.5472709665096</v>
@@ -2002,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>132.9147347601046</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2044,19 +2044,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>43.3560697996877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>13.64898583655291</v>
       </c>
       <c r="H20" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,25 +2126,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1.197900299766525</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2163,22 +2163,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>101.6323748713285</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S21" t="n">
-        <v>106.2387529750474</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>197.5472709665096</v>
@@ -2251,16 +2251,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.3565097727589</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>136.2566308880122</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2330,10 +2330,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
-        <v>327.0451232326991</v>
+        <v>264.1397654704448</v>
       </c>
       <c r="I23" t="n">
         <v>163.6851955497072</v>
@@ -2363,19 +2363,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>172.6944212823783</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2403,16 +2403,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>143.3680272159724</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>6.45683482408856</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S24" t="n">
         <v>159.6212195484502</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T25" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>54.21297465918772</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>43.12240526463283</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,22 +2555,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>325.4931933477299</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>327.0451232326991</v>
+        <v>232.6976319503262</v>
       </c>
       <c r="I26" t="n">
         <v>163.6851955497072</v>
@@ -2600,25 +2600,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2643,16 +2643,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>91.6867458199809</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.83930139749142</v>
+        <v>53.92880121529013</v>
       </c>
       <c r="S27" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.8986597023843</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>16.83786409935511</v>
       </c>
       <c r="F28" t="n">
-        <v>91.35315769505117</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,10 +2767,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8759895224492</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>283.2939540342562</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2874,7 +2874,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2916,16 +2916,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>41.75264723147848</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S30" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8986597023843</v>
+        <v>22.44088855367314</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>20.81789375578485</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2992,13 +2992,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>182.0440883295705</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3032,22 +3032,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>327.0451232326991</v>
+        <v>264.3152704432775</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,28 +3074,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
-        <v>178.1341415252265</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3120,13 +3120,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>60.11425531312955</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>89.18211739820566</v>
       </c>
       <c r="T33" t="n">
         <v>197.5472709665096</v>
@@ -3165,7 +3165,7 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>77.50776027739583</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3205,10 +3205,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3238,10 +3238,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>109.1800806357979</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3275,16 +3275,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>181.3631617334038</v>
+        <v>45.80415415398289</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>60.03407569047388</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3351,10 +3351,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>45.59910121103272</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>136.6941370086349</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S36" t="n">
         <v>159.6212195484502</v>
@@ -3408,7 +3408,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>8.497094963217121</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3424,10 +3424,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>154.5117248826789</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3475,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>16.83786409935544</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
-        <v>188.7324746688625</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,10 +3548,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>28.19182803641198</v>
       </c>
       <c r="T38" t="n">
         <v>217.7829317747374</v>
@@ -3560,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3597,10 +3597,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
-        <v>105.9637990594094</v>
+        <v>0.2713807262491367</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>219.9881595201828</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3658,19 +3658,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>13.69289171884184</v>
       </c>
       <c r="C40" t="n">
-        <v>114.7943575370071</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3746,13 +3746,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>327.0451232326991</v>
@@ -3785,25 +3785,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S41" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>276.3013470391633</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>29.86047128070634</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,25 +3864,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U42" t="n">
         <v>225.8986597023843</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>75.49458165574123</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3907,19 +3907,19 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>50.77874055800486</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3940,19 +3940,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>26.70811087043582</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3983,10 +3983,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>310.5502370139271</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>414.089049841944</v>
@@ -3995,7 +3995,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V44" t="n">
-        <v>74.23873589387296</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>53.92880121529013</v>
       </c>
       <c r="U45" t="n">
-        <v>219.9881595201828</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>89.14352724124579</v>
       </c>
       <c r="W46" t="n">
-        <v>156.6932352543227</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C2" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D2" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E2" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F2" t="n">
-        <v>262.7299197543128</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>812.6742080953335</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>812.6742080953335</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V2" t="n">
-        <v>812.6742080953335</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W2" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X2" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y2" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>319.0683498528888</v>
+        <v>453.4809361619635</v>
       </c>
       <c r="C3" t="n">
-        <v>319.0683498528888</v>
+        <v>453.4809361619635</v>
       </c>
       <c r="D3" t="n">
-        <v>319.0683498528888</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E3" t="n">
-        <v>319.0683498528888</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F3" t="n">
-        <v>222.9499078454769</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G3" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
         <v>19.28114311021272</v>
@@ -4416,43 +4416,43 @@
         <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>487.2836868729568</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V3" t="n">
-        <v>487.2836868729568</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W3" t="n">
-        <v>487.2836868729568</v>
+        <v>453.4809361619635</v>
       </c>
       <c r="X3" t="n">
-        <v>487.2836868729568</v>
+        <v>453.4809361619635</v>
       </c>
       <c r="Y3" t="n">
-        <v>487.2836868729568</v>
+        <v>453.4809361619635</v>
       </c>
     </row>
     <row r="4">
@@ -4504,25 +4504,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4547,16 +4547,16 @@
         <v>467.067986854209</v>
       </c>
       <c r="D5" t="n">
-        <v>467.067986854209</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E5" t="n">
-        <v>467.067986854209</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="F5" t="n">
-        <v>223.6192102101089</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H5" t="n">
         <v>31.35113235729608</v>
@@ -4607,7 +4607,7 @@
         <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y5" t="n">
         <v>710.516763498309</v>
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>405.0497398874226</v>
+        <v>292.9211302503287</v>
       </c>
       <c r="C6" t="n">
-        <v>405.0497398874226</v>
+        <v>292.9211302503287</v>
       </c>
       <c r="D6" t="n">
-        <v>256.1153302261713</v>
+        <v>292.9211302503287</v>
       </c>
       <c r="E6" t="n">
-        <v>256.1153302261713</v>
+        <v>292.9211302503287</v>
       </c>
       <c r="F6" t="n">
-        <v>109.5807722530562</v>
+        <v>292.9211302503287</v>
       </c>
       <c r="G6" t="n">
-        <v>109.5807722530562</v>
+        <v>154.1903048329442</v>
       </c>
       <c r="H6" t="n">
         <v>109.5807722530562</v>
@@ -4647,49 +4647,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>573.2650769074905</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>573.2650769074905</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>573.2650769074905</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X6" t="n">
-        <v>573.2650769074905</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="Y6" t="n">
-        <v>573.2650769074905</v>
+        <v>292.9211302503287</v>
       </c>
     </row>
     <row r="7">
@@ -4750,13 +4750,13 @@
         <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
         <v>19.28114311021272</v>
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>730.8505943024719</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C8" t="n">
-        <v>730.8505943024719</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D8" t="n">
-        <v>730.8505943024719</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E8" t="n">
-        <v>730.8505943024719</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F8" t="n">
-        <v>487.4018176583718</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
         <v>243.9530410142718</v>
@@ -4829,25 +4829,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="W8" t="n">
-        <v>802.5825927271064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="X8" t="n">
-        <v>802.5825927271064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="Y8" t="n">
-        <v>802.5825927271064</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>444.0253891924244</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="C9" t="n">
-        <v>269.5723599112974</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="D9" t="n">
-        <v>269.5723599112974</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E9" t="n">
-        <v>110.334904905842</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4884,13 +4884,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
         <v>542.809531908403</v>
@@ -4905,28 +4905,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V9" t="n">
-        <v>895.3256660420573</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W9" t="n">
-        <v>651.8768893979573</v>
+        <v>542.6366709617143</v>
       </c>
       <c r="X9" t="n">
-        <v>444.0253891924244</v>
+        <v>334.7851707561815</v>
       </c>
       <c r="Y9" t="n">
-        <v>444.0253891924244</v>
+        <v>334.7851707561815</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
         <v>19.28114311021272</v>
@@ -4987,25 +4987,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1339.356344518795</v>
+        <v>900.847885737694</v>
       </c>
       <c r="C11" t="n">
-        <v>1339.356344518795</v>
+        <v>900.847885737694</v>
       </c>
       <c r="D11" t="n">
-        <v>1339.356344518795</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="E11" t="n">
-        <v>953.5680919205511</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="F11" t="n">
         <v>542.5821871309436</v>
@@ -5063,28 +5063,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2310.80549404162</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S11" t="n">
-        <v>2310.80549404162</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T11" t="n">
-        <v>2310.80549404162</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U11" t="n">
-        <v>2057.019071926488</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V11" t="n">
-        <v>1725.956184582917</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W11" t="n">
-        <v>1725.956184582917</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="X11" t="n">
-        <v>1725.956184582917</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="Y11" t="n">
-        <v>1725.956184582917</v>
+        <v>900.847885737694</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C12" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D12" t="n">
-        <v>298.7453260127371</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E12" t="n">
-        <v>221.6448824165167</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F12" t="n">
-        <v>221.6448824165167</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G12" t="n">
         <v>221.6448824165167</v>
@@ -5118,7 +5118,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K12" t="n">
         <v>121.6684232076319</v>
@@ -5145,25 +5145,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S12" t="n">
-        <v>2123.072528197426</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T12" t="n">
-        <v>1923.529830251457</v>
+        <v>2084.763385350902</v>
       </c>
       <c r="U12" t="n">
-        <v>1695.349365905614</v>
+        <v>1856.582921005059</v>
       </c>
       <c r="V12" t="n">
-        <v>1460.197257673872</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W12" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X12" t="n">
-        <v>998.1084007401373</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y12" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="13">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1623.547602762834</v>
+        <v>1159.911464587051</v>
       </c>
       <c r="C14" t="n">
-        <v>1254.585085822422</v>
+        <v>790.948947646639</v>
       </c>
       <c r="D14" t="n">
-        <v>1254.585085822422</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="E14" t="n">
-        <v>868.7968332241778</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F14" t="n">
-        <v>457.8109284345703</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G14" t="n">
         <v>46.89499644164432</v>
@@ -5276,16 +5276,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L14" t="n">
-        <v>762.5916738244551</v>
+        <v>762.5916738244548</v>
       </c>
       <c r="M14" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N14" t="n">
         <v>1610.799342072557</v>
@@ -5306,22 +5306,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T14" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U14" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="V14" t="n">
-        <v>2013.686934738646</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="W14" t="n">
-        <v>2013.686934738646</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="X14" t="n">
-        <v>2013.686934738646</v>
+        <v>1751.301304452715</v>
       </c>
       <c r="Y14" t="n">
-        <v>1623.547602762834</v>
+        <v>1361.161972476903</v>
       </c>
     </row>
     <row r="15">
@@ -5355,16 +5355,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K15" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L15" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M15" t="n">
-        <v>974.4476973832902</v>
+        <v>974.4476973832905</v>
       </c>
       <c r="N15" t="n">
         <v>1486.172378671464</v>
@@ -5379,16 +5379,16 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S15" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T15" t="n">
-        <v>2290.276285501115</v>
+        <v>2084.763385350902</v>
       </c>
       <c r="U15" t="n">
-        <v>2062.095821155272</v>
+        <v>1856.582921005059</v>
       </c>
       <c r="V15" t="n">
         <v>1826.94371292353</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="C16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="D16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="E16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="F16" t="n">
         <v>570.9156784273715</v>
@@ -5440,46 +5440,46 @@
         <v>87.46721626702976</v>
       </c>
       <c r="L16" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M16" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N16" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O16" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="W16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="X16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Y16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2319.517746219732</v>
+        <v>513.6162693049855</v>
       </c>
       <c r="C17" t="n">
-        <v>1950.55522927932</v>
+        <v>144.6537523645738</v>
       </c>
       <c r="D17" t="n">
-        <v>1592.28953067257</v>
+        <v>144.6537523645738</v>
       </c>
       <c r="E17" t="n">
-        <v>1206.501278074326</v>
+        <v>144.6537523645738</v>
       </c>
       <c r="F17" t="n">
-        <v>795.5153732847182</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G17" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H17" t="n">
         <v>46.89499644164432</v>
@@ -5513,16 +5513,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L17" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M17" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N17" t="n">
         <v>1610.799342072557</v>
@@ -5537,28 +5537,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U17" t="n">
-        <v>2344.749822082216</v>
+        <v>2016.589854876113</v>
       </c>
       <c r="V17" t="n">
-        <v>2344.749822082216</v>
+        <v>2016.589854876113</v>
       </c>
       <c r="W17" t="n">
-        <v>2344.749822082216</v>
+        <v>1663.821199605999</v>
       </c>
       <c r="X17" t="n">
-        <v>2344.749822082216</v>
+        <v>1290.355441344919</v>
       </c>
       <c r="Y17" t="n">
-        <v>2344.749822082216</v>
+        <v>900.2161093691072</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>843.8100588399052</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C18" t="n">
-        <v>669.3570295587782</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D18" t="n">
-        <v>520.4226198975269</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E18" t="n">
-        <v>361.1851648920714</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="F18" t="n">
-        <v>214.6506069189564</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="G18" t="n">
-        <v>76.57572105164846</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H18" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I18" t="n">
         <v>46.89499644164432</v>
@@ -5598,10 +5598,10 @@
         <v>276.0646041288937</v>
       </c>
       <c r="L18" t="n">
-        <v>642.6780758583286</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M18" t="n">
-        <v>1125.906134925503</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N18" t="n">
         <v>1637.630816213677</v>
@@ -5616,28 +5616,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R18" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S18" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T18" t="n">
-        <v>2145.207124136247</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U18" t="n">
-        <v>1917.026659790404</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V18" t="n">
-        <v>1681.874551558662</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W18" t="n">
-        <v>1427.63719483046</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X18" t="n">
-        <v>1219.785694624927</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y18" t="n">
-        <v>1012.025395859973</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="19">
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.89499644164432</v>
+        <v>350.0884872080407</v>
       </c>
       <c r="C19" t="n">
-        <v>46.89499644164432</v>
+        <v>181.1523042801338</v>
       </c>
       <c r="D19" t="n">
         <v>46.89499644164432</v>
@@ -5692,31 +5692,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q19" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R19" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="S19" t="n">
-        <v>607.7685734363102</v>
+        <v>350.0884872080407</v>
       </c>
       <c r="T19" t="n">
-        <v>379.8701515943957</v>
+        <v>350.0884872080407</v>
       </c>
       <c r="U19" t="n">
-        <v>90.68900634031877</v>
+        <v>350.0884872080407</v>
       </c>
       <c r="V19" t="n">
-        <v>90.68900634031877</v>
+        <v>350.0884872080407</v>
       </c>
       <c r="W19" t="n">
-        <v>90.68900634031877</v>
+        <v>350.0884872080407</v>
       </c>
       <c r="X19" t="n">
-        <v>90.68900634031877</v>
+        <v>350.0884872080407</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.89499644164432</v>
+        <v>350.0884872080407</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>928.3704397291879</v>
+        <v>1584.684223757015</v>
       </c>
       <c r="C20" t="n">
-        <v>928.3704397291879</v>
+        <v>1215.721706816603</v>
       </c>
       <c r="D20" t="n">
-        <v>928.3704397291879</v>
+        <v>857.4560082098526</v>
       </c>
       <c r="E20" t="n">
-        <v>542.5821871309436</v>
+        <v>471.6677556116084</v>
       </c>
       <c r="F20" t="n">
-        <v>542.5821871309436</v>
+        <v>60.6818508220008</v>
       </c>
       <c r="G20" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H20" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M20" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N20" t="n">
         <v>1610.799342072557</v>
@@ -5774,28 +5774,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S20" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T20" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U20" t="n">
-        <v>1613.411982645667</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V20" t="n">
-        <v>1282.349095302096</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W20" t="n">
-        <v>929.5804400319823</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X20" t="n">
-        <v>928.3704397291879</v>
+        <v>1971.284063821136</v>
       </c>
       <c r="Y20" t="n">
-        <v>928.3704397291879</v>
+        <v>1971.284063821136</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>676.0544483625931</v>
+        <v>783.3663200545602</v>
       </c>
       <c r="C21" t="n">
-        <v>501.6014190814661</v>
+        <v>608.9132907734332</v>
       </c>
       <c r="D21" t="n">
-        <v>352.6670094202149</v>
+        <v>608.9132907734332</v>
       </c>
       <c r="E21" t="n">
-        <v>193.4295544147594</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F21" t="n">
-        <v>46.89499644164432</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G21" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H21" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I21" t="n">
         <v>46.89499644164432</v>
@@ -5832,22 +5832,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K21" t="n">
-        <v>273.1268607498447</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L21" t="n">
-        <v>642.6780758583286</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M21" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N21" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O21" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P21" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q21" t="n">
         <v>2344.749822082216</v>
@@ -5856,25 +5856,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S21" t="n">
-        <v>2176.994211604904</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T21" t="n">
-        <v>1977.451513658935</v>
+        <v>2084.763385350902</v>
       </c>
       <c r="U21" t="n">
-        <v>1749.271049313092</v>
+        <v>1856.582921005059</v>
       </c>
       <c r="V21" t="n">
-        <v>1514.118941081349</v>
+        <v>1621.430812773317</v>
       </c>
       <c r="W21" t="n">
-        <v>1259.881584353148</v>
+        <v>1367.193456045115</v>
       </c>
       <c r="X21" t="n">
-        <v>1052.030084147615</v>
+        <v>1159.341955839582</v>
       </c>
       <c r="Y21" t="n">
-        <v>844.2697853826612</v>
+        <v>951.5816570746283</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2303.765562347826</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C22" t="n">
-        <v>2303.765562347826</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D22" t="n">
-        <v>2303.765562347826</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E22" t="n">
-        <v>2303.765562347826</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F22" t="n">
-        <v>2303.765562347826</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G22" t="n">
-        <v>2138.758986819787</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H22" t="n">
-        <v>1979.7824241432</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I22" t="n">
-        <v>1839.299266942299</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K22" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L22" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M22" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N22" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O22" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q22" t="n">
-        <v>2303.765562347826</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R22" t="n">
-        <v>2303.765562347826</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="S22" t="n">
-        <v>2303.765562347826</v>
+        <v>274.7934182835589</v>
       </c>
       <c r="T22" t="n">
-        <v>2303.765562347826</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="U22" t="n">
-        <v>2303.765562347826</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="V22" t="n">
-        <v>2303.765562347826</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W22" t="n">
-        <v>2303.765562347826</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X22" t="n">
-        <v>2303.765562347826</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y22" t="n">
-        <v>2303.765562347826</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>542.5821871309436</v>
+        <v>897.3131892316403</v>
       </c>
       <c r="C23" t="n">
-        <v>542.5821871309436</v>
+        <v>897.3131892316403</v>
       </c>
       <c r="D23" t="n">
-        <v>542.5821871309436</v>
+        <v>897.3131892316403</v>
       </c>
       <c r="E23" t="n">
-        <v>542.5821871309436</v>
+        <v>897.3131892316403</v>
       </c>
       <c r="F23" t="n">
-        <v>542.5821871309436</v>
+        <v>897.3131892316403</v>
       </c>
       <c r="G23" t="n">
-        <v>542.5821871309436</v>
+        <v>479.0414217145251</v>
       </c>
       <c r="H23" t="n">
         <v>212.2335778049849</v>
@@ -5987,13 +5987,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L23" t="n">
-        <v>762.5916738244551</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M23" t="n">
         <v>1190.549107376119</v>
@@ -6008,31 +6008,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q23" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R23" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S23" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="T23" t="n">
-        <v>1912.742354753082</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="U23" t="n">
-        <v>1658.955932637949</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="V23" t="n">
-        <v>1658.955932637949</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="W23" t="n">
-        <v>1306.187277367835</v>
+        <v>1660.918279468532</v>
       </c>
       <c r="X23" t="n">
-        <v>932.7215191067553</v>
+        <v>1287.452521207452</v>
       </c>
       <c r="Y23" t="n">
-        <v>542.5821871309436</v>
+        <v>897.3131892316403</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>682.5765037404603</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C24" t="n">
-        <v>508.1234744593334</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D24" t="n">
-        <v>359.1890647980821</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E24" t="n">
-        <v>199.9516097926266</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="F24" t="n">
-        <v>53.41705181951156</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="G24" t="n">
-        <v>46.89499644164432</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H24" t="n">
         <v>46.89499644164432</v>
@@ -6072,10 +6072,10 @@
         <v>276.0646041288937</v>
       </c>
       <c r="L24" t="n">
-        <v>645.6158192373775</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M24" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N24" t="n">
         <v>1637.630816213677</v>
@@ -6090,28 +6090,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S24" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T24" t="n">
-        <v>1983.973569036802</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U24" t="n">
-        <v>1755.793104690959</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V24" t="n">
-        <v>1520.640996459217</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W24" t="n">
-        <v>1266.403639731015</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X24" t="n">
-        <v>1058.552139525482</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y24" t="n">
-        <v>850.7918407605284</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="25">
@@ -6172,19 +6172,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S25" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T25" t="n">
-        <v>379.8701515943957</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="U25" t="n">
-        <v>379.8701515943957</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="V25" t="n">
-        <v>379.8701515943957</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W25" t="n">
-        <v>90.45298155743507</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X25" t="n">
         <v>46.89499644164432</v>
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1282.349095302096</v>
+        <v>1971.284063821136</v>
       </c>
       <c r="C26" t="n">
-        <v>1282.349095302096</v>
+        <v>1602.321546880725</v>
       </c>
       <c r="D26" t="n">
-        <v>1282.349095302096</v>
+        <v>1244.055848273974</v>
       </c>
       <c r="E26" t="n">
-        <v>1282.349095302096</v>
+        <v>858.26759567573</v>
       </c>
       <c r="F26" t="n">
-        <v>871.3631905124889</v>
+        <v>447.2816908861225</v>
       </c>
       <c r="G26" t="n">
-        <v>542.5821871309436</v>
+        <v>447.2816908861225</v>
       </c>
       <c r="H26" t="n">
         <v>212.2335778049849</v>
@@ -6224,16 +6224,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L26" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M26" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N26" t="n">
         <v>1610.799342072557</v>
@@ -6248,28 +6248,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S26" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T26" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U26" t="n">
-        <v>1613.411982645667</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V26" t="n">
-        <v>1282.349095302096</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W26" t="n">
-        <v>1282.349095302096</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X26" t="n">
-        <v>1282.349095302096</v>
+        <v>1971.284063821136</v>
       </c>
       <c r="Y26" t="n">
-        <v>1282.349095302096</v>
+        <v>1971.284063821136</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C27" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D27" t="n">
-        <v>298.7453260127371</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E27" t="n">
-        <v>139.5078710072816</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F27" t="n">
-        <v>139.5078710072816</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G27" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H27" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I27" t="n">
         <v>46.89499644164432</v>
@@ -6306,49 +6306,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K27" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L27" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M27" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N27" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O27" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P27" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R27" t="n">
-        <v>2284.306083296871</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="S27" t="n">
-        <v>2123.072528197426</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="T27" t="n">
-        <v>1923.529830251457</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U27" t="n">
-        <v>1695.349365905614</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V27" t="n">
-        <v>1460.197257673872</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W27" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X27" t="n">
-        <v>998.1084007401373</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y27" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>607.7685734363102</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="C28" t="n">
-        <v>607.7685734363102</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="D28" t="n">
-        <v>607.7685734363102</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="E28" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F28" t="n">
-        <v>515.4926565726222</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G28" t="n">
-        <v>346.3547163191317</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H28" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I28" t="n">
         <v>46.89499644164432</v>
@@ -6415,19 +6415,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U28" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V28" t="n">
-        <v>607.7685734363102</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="W28" t="n">
-        <v>607.7685734363102</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="X28" t="n">
-        <v>607.7685734363102</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="Y28" t="n">
-        <v>607.7685734363102</v>
+        <v>63.90293997634646</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1954.610490106405</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="C29" t="n">
-        <v>1585.647973165993</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="D29" t="n">
-        <v>1227.382274559243</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="E29" t="n">
-        <v>841.5940219609986</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="F29" t="n">
-        <v>430.608117171391</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="G29" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H29" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I29" t="n">
         <v>46.89499644164432</v>
@@ -6485,28 +6485,28 @@
         <v>2344.749822082217</v>
       </c>
       <c r="R29" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S29" t="n">
-        <v>2344.749822082217</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T29" t="n">
-        <v>2344.749822082217</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U29" t="n">
-        <v>2344.749822082217</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="V29" t="n">
-        <v>2344.749822082217</v>
+        <v>1655.416440726259</v>
       </c>
       <c r="W29" t="n">
-        <v>2344.749822082217</v>
+        <v>1302.647785456145</v>
       </c>
       <c r="X29" t="n">
-        <v>2344.749822082217</v>
+        <v>929.1820271950653</v>
       </c>
       <c r="Y29" t="n">
-        <v>1954.610490106405</v>
+        <v>929.1820271950653</v>
       </c>
     </row>
     <row r="30">
@@ -6516,10 +6516,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>839.9448105435223</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C30" t="n">
-        <v>665.4917812623953</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D30" t="n">
         <v>665.4917812623953</v>
@@ -6543,49 +6543,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K30" t="n">
-        <v>273.1268607498447</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L30" t="n">
-        <v>642.6780758583286</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M30" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N30" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O30" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P30" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q30" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R30" t="n">
-        <v>2302.575430939309</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S30" t="n">
-        <v>2141.341875839864</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T30" t="n">
-        <v>2141.341875839864</v>
+        <v>2084.763385350902</v>
       </c>
       <c r="U30" t="n">
-        <v>1913.161411494021</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V30" t="n">
-        <v>1678.009303262279</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W30" t="n">
-        <v>1423.771946534077</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X30" t="n">
-        <v>1215.920446328544</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y30" t="n">
-        <v>1008.16014756359</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="31">
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1783.87624508755</v>
+        <v>2123.957242938686</v>
       </c>
       <c r="C31" t="n">
-        <v>1783.87624508755</v>
+        <v>1955.021060010779</v>
       </c>
       <c r="D31" t="n">
-        <v>1783.87624508755</v>
+        <v>1804.904420598444</v>
       </c>
       <c r="E31" t="n">
         <v>1783.87624508755</v>
@@ -6640,31 +6640,31 @@
         <v>2344.749822082216</v>
       </c>
       <c r="Q31" t="n">
-        <v>2303.765562347826</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R31" t="n">
-        <v>2149.407627422406</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S31" t="n">
-        <v>1965.52470991779</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T31" t="n">
-        <v>1965.52470991779</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U31" t="n">
-        <v>1965.52470991779</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V31" t="n">
-        <v>1965.52470991779</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W31" t="n">
-        <v>1965.52470991779</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X31" t="n">
-        <v>1965.52470991779</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y31" t="n">
-        <v>1965.52470991779</v>
+        <v>2123.957242938686</v>
       </c>
     </row>
     <row r="32">
@@ -6674,40 +6674,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1206.501278074326</v>
+        <v>1223.272650669856</v>
       </c>
       <c r="C32" t="n">
-        <v>1206.501278074326</v>
+        <v>1223.272650669856</v>
       </c>
       <c r="D32" t="n">
-        <v>1206.501278074326</v>
+        <v>865.0069520631055</v>
       </c>
       <c r="E32" t="n">
-        <v>1206.501278074326</v>
+        <v>479.2186994648612</v>
       </c>
       <c r="F32" t="n">
-        <v>795.5153732847182</v>
+        <v>479.2186994648612</v>
       </c>
       <c r="G32" t="n">
-        <v>377.243605767603</v>
+        <v>479.2186994648612</v>
       </c>
       <c r="H32" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I32" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L32" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M32" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N32" t="n">
         <v>1610.799342072557</v>
@@ -6719,31 +6719,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q32" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R32" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S32" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T32" t="n">
-        <v>2164.816345794109</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U32" t="n">
-        <v>1911.029923678976</v>
+        <v>1613.411982645668</v>
       </c>
       <c r="V32" t="n">
-        <v>1579.967036335406</v>
+        <v>1613.411982645668</v>
       </c>
       <c r="W32" t="n">
-        <v>1579.967036335406</v>
+        <v>1613.411982645668</v>
       </c>
       <c r="X32" t="n">
-        <v>1206.501278074326</v>
+        <v>1613.411982645668</v>
       </c>
       <c r="Y32" t="n">
-        <v>1206.501278074326</v>
+        <v>1223.272650669856</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>843.8100588399052</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C33" t="n">
-        <v>669.3570295587782</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D33" t="n">
-        <v>520.4226198975269</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E33" t="n">
-        <v>361.1851648920714</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F33" t="n">
-        <v>214.6506069189564</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G33" t="n">
-        <v>153.9291369056942</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H33" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
@@ -6804,25 +6804,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S33" t="n">
-        <v>2344.749822082216</v>
+        <v>2254.666875215342</v>
       </c>
       <c r="T33" t="n">
-        <v>2145.207124136247</v>
+        <v>2055.124177269372</v>
       </c>
       <c r="U33" t="n">
-        <v>1917.026659790404</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="V33" t="n">
-        <v>1681.874551558662</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W33" t="n">
-        <v>1427.63719483046</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X33" t="n">
-        <v>1219.785694624927</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y33" t="n">
-        <v>1012.025395859973</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>125.1856633885088</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="C34" t="n">
-        <v>125.1856633885088</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="D34" t="n">
-        <v>125.1856633885088</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="E34" t="n">
-        <v>46.89499644164432</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="F34" t="n">
-        <v>46.89499644164432</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="G34" t="n">
-        <v>46.89499644164432</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="H34" t="n">
-        <v>46.89499644164432</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="I34" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J34" t="n">
         <v>46.89499644164432</v>
@@ -6886,22 +6886,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T34" t="n">
-        <v>379.8701515943957</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U34" t="n">
-        <v>379.8701515943957</v>
+        <v>497.4856637031811</v>
       </c>
       <c r="V34" t="n">
-        <v>125.1856633885088</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="W34" t="n">
-        <v>125.1856633885088</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="X34" t="n">
-        <v>125.1856633885088</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="Y34" t="n">
-        <v>125.1856633885088</v>
+        <v>242.8011754972942</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.89499644164432</v>
+        <v>953.5680919205511</v>
       </c>
       <c r="C35" t="n">
-        <v>46.89499644164432</v>
+        <v>953.5680919205511</v>
       </c>
       <c r="D35" t="n">
-        <v>46.89499644164432</v>
+        <v>953.5680919205511</v>
       </c>
       <c r="E35" t="n">
-        <v>46.89499644164432</v>
+        <v>953.5680919205511</v>
       </c>
       <c r="F35" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="G35" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H35" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I35" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J35" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L35" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M35" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N35" t="n">
         <v>1610.799342072557</v>
@@ -6962,25 +6962,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S35" t="n">
-        <v>2161.554709220192</v>
+        <v>2298.482999704456</v>
       </c>
       <c r="T35" t="n">
-        <v>1941.571949851771</v>
+        <v>2298.482999704456</v>
       </c>
       <c r="U35" t="n">
-        <v>1880.931469356342</v>
+        <v>2044.696577589323</v>
       </c>
       <c r="V35" t="n">
-        <v>1549.868582012772</v>
+        <v>1713.633690245753</v>
       </c>
       <c r="W35" t="n">
-        <v>1197.099926742658</v>
+        <v>1713.633690245753</v>
       </c>
       <c r="X35" t="n">
-        <v>823.6341684815778</v>
+        <v>1340.167931984673</v>
       </c>
       <c r="Y35" t="n">
-        <v>433.4948365057661</v>
+        <v>1340.167931984673</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>881.8450797407235</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C36" t="n">
-        <v>707.3920504595965</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D36" t="n">
-        <v>558.4576407983452</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E36" t="n">
-        <v>399.2201857928898</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="F36" t="n">
         <v>252.6856278197748</v>
@@ -7017,49 +7017,49 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K36" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L36" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O36" t="n">
-        <v>2102.280527752458</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P36" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q36" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R36" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S36" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T36" t="n">
-        <v>1983.973569036802</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U36" t="n">
-        <v>1755.793104690959</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V36" t="n">
-        <v>1520.640996459217</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W36" t="n">
-        <v>1266.403639731015</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X36" t="n">
-        <v>1257.820715525745</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y36" t="n">
-        <v>1050.060416760791</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>353.0840852304234</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C37" t="n">
-        <v>197.0116358539801</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D37" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E37" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F37" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G37" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H37" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I37" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J37" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K37" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L37" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N37" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O37" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P37" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q37" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R37" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S37" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T37" t="n">
-        <v>607.7685734363102</v>
+        <v>2327.741878547514</v>
       </c>
       <c r="U37" t="n">
-        <v>607.7685734363102</v>
+        <v>2038.560733293437</v>
       </c>
       <c r="V37" t="n">
-        <v>353.0840852304234</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="W37" t="n">
-        <v>353.0840852304234</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="X37" t="n">
-        <v>353.0840852304234</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="Y37" t="n">
-        <v>353.0840852304234</v>
+        <v>1783.87624508755</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>606.4963766839373</v>
+        <v>1743.521813467506</v>
       </c>
       <c r="C38" t="n">
-        <v>237.5338597435256</v>
+        <v>1374.559296527095</v>
       </c>
       <c r="D38" t="n">
-        <v>237.5338597435256</v>
+        <v>1016.293597920344</v>
       </c>
       <c r="E38" t="n">
-        <v>237.5338597435256</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="F38" t="n">
-        <v>237.5338597435256</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="G38" t="n">
-        <v>237.5338597435256</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H38" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I38" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L38" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M38" t="n">
         <v>1190.549107376119</v>
@@ -7196,28 +7196,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S38" t="n">
-        <v>2270.376276991246</v>
+        <v>2316.273228106043</v>
       </c>
       <c r="T38" t="n">
-        <v>2050.393517622824</v>
+        <v>2096.290468737621</v>
       </c>
       <c r="U38" t="n">
-        <v>2050.393517622824</v>
+        <v>2096.290468737621</v>
       </c>
       <c r="V38" t="n">
-        <v>1719.330630279253</v>
+        <v>2096.290468737621</v>
       </c>
       <c r="W38" t="n">
-        <v>1366.561975009139</v>
+        <v>1743.521813467506</v>
       </c>
       <c r="X38" t="n">
-        <v>993.0962167480591</v>
+        <v>1743.521813467506</v>
       </c>
       <c r="Y38" t="n">
-        <v>993.0962167480591</v>
+        <v>1743.521813467506</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.8792202047736</v>
+        <v>882.1192016864297</v>
       </c>
       <c r="C39" t="n">
-        <v>814.4261909236466</v>
+        <v>707.6661724053027</v>
       </c>
       <c r="D39" t="n">
-        <v>665.4917812623953</v>
+        <v>558.7317627440515</v>
       </c>
       <c r="E39" t="n">
-        <v>506.2543262569397</v>
+        <v>399.494307738596</v>
       </c>
       <c r="F39" t="n">
-        <v>359.7197682838247</v>
+        <v>252.959749765481</v>
       </c>
       <c r="G39" t="n">
-        <v>221.6448824165167</v>
+        <v>114.884863898173</v>
       </c>
       <c r="H39" t="n">
         <v>114.6107419524668</v>
@@ -7251,19 +7251,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J39" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K39" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L39" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O39" t="n">
         <v>1887.88481026779</v>
@@ -7275,28 +7275,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S39" t="n">
-        <v>2284.306083296871</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T39" t="n">
-        <v>2284.306083296871</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="U39" t="n">
-        <v>2062.095821155272</v>
+        <v>1955.335802636929</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.94371292353</v>
+        <v>1720.183694405186</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.706356195328</v>
+        <v>1465.946337676985</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.854855989795</v>
+        <v>1258.094837471452</v>
       </c>
       <c r="Y39" t="n">
-        <v>1157.094557224842</v>
+        <v>1050.334538706498</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2344.749822082216</v>
+        <v>365.947818781887</v>
       </c>
       <c r="C40" t="n">
-        <v>2228.795925580189</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="D40" t="n">
-        <v>2078.679286167853</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E40" t="n">
-        <v>1930.76619258546</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K40" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L40" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M40" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N40" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O40" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X40" t="n">
-        <v>2344.749822082216</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="Y40" t="n">
-        <v>2344.749822082216</v>
+        <v>379.7790225382929</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>960.8539546480588</v>
+        <v>1339.356344518795</v>
       </c>
       <c r="C41" t="n">
-        <v>960.8539546480588</v>
+        <v>1339.356344518795</v>
       </c>
       <c r="D41" t="n">
-        <v>960.8539546480588</v>
+        <v>1339.356344518795</v>
       </c>
       <c r="E41" t="n">
-        <v>960.8539546480588</v>
+        <v>953.5680919205511</v>
       </c>
       <c r="F41" t="n">
-        <v>960.8539546480588</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="G41" t="n">
         <v>542.5821871309436</v>
@@ -7409,10 +7409,10 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J41" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L41" t="n">
         <v>762.591673824455</v>
@@ -7439,22 +7439,22 @@
         <v>2087.181164129222</v>
       </c>
       <c r="T41" t="n">
-        <v>1867.1984047608</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="U41" t="n">
-        <v>1613.411982645667</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="V41" t="n">
-        <v>1334.319712909139</v>
+        <v>1756.118276785651</v>
       </c>
       <c r="W41" t="n">
-        <v>1334.319712909139</v>
+        <v>1756.118276785651</v>
       </c>
       <c r="X41" t="n">
-        <v>960.8539546480588</v>
+        <v>1725.956184582917</v>
       </c>
       <c r="Y41" t="n">
-        <v>960.8539546480588</v>
+        <v>1725.956184582917</v>
       </c>
     </row>
     <row r="42">
@@ -7488,16 +7488,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J42" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K42" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L42" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M42" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N42" t="n">
         <v>1486.172378671464</v>
@@ -7512,22 +7512,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S42" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T42" t="n">
-        <v>2290.276285501115</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U42" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.94371292353</v>
+        <v>1619.092212717997</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.706356195328</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="X42" t="n">
         <v>1364.854855989795</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>566.78431370192</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="C43" t="n">
-        <v>566.78431370192</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="D43" t="n">
-        <v>566.78431370192</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="E43" t="n">
-        <v>566.78431370192</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="F43" t="n">
-        <v>515.4926565726222</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="G43" t="n">
-        <v>346.3547163191317</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="H43" t="n">
-        <v>187.3781536425449</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="I43" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J43" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K43" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L43" t="n">
         <v>194.9121237200978</v>
@@ -7594,25 +7594,25 @@
         <v>566.78431370192</v>
       </c>
       <c r="S43" t="n">
-        <v>566.78431370192</v>
+        <v>350.0884872080407</v>
       </c>
       <c r="T43" t="n">
-        <v>566.78431370192</v>
+        <v>350.0884872080407</v>
       </c>
       <c r="U43" t="n">
-        <v>566.78431370192</v>
+        <v>323.1105974399237</v>
       </c>
       <c r="V43" t="n">
-        <v>566.78431370192</v>
+        <v>323.1105974399237</v>
       </c>
       <c r="W43" t="n">
-        <v>566.78431370192</v>
+        <v>323.1105974399237</v>
       </c>
       <c r="X43" t="n">
-        <v>566.78431370192</v>
+        <v>323.1105974399237</v>
       </c>
       <c r="Y43" t="n">
-        <v>566.78431370192</v>
+        <v>102.3180182963936</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7622,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>795.5153732847182</v>
+        <v>1685.526967532542</v>
       </c>
       <c r="C44" t="n">
-        <v>795.5153732847182</v>
+        <v>1685.526967532542</v>
       </c>
       <c r="D44" t="n">
-        <v>795.5153732847182</v>
+        <v>1685.526967532542</v>
       </c>
       <c r="E44" t="n">
-        <v>795.5153732847182</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F44" t="n">
-        <v>795.5153732847182</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G44" t="n">
-        <v>377.243605767603</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H44" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915536</v>
+        <v>137.045321891553</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275671</v>
       </c>
       <c r="L44" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M44" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N44" t="n">
         <v>1610.799342072557</v>
@@ -7673,25 +7673,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S44" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T44" t="n">
-        <v>1867.1984047608</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U44" t="n">
-        <v>1613.411982645667</v>
+        <v>2016.589854876113</v>
       </c>
       <c r="V44" t="n">
-        <v>1538.423360530644</v>
+        <v>1685.526967532542</v>
       </c>
       <c r="W44" t="n">
-        <v>1185.65470526053</v>
+        <v>1685.526967532542</v>
       </c>
       <c r="X44" t="n">
-        <v>1185.65470526053</v>
+        <v>1685.526967532542</v>
       </c>
       <c r="Y44" t="n">
-        <v>795.5153732847182</v>
+        <v>1685.526967532542</v>
       </c>
     </row>
     <row r="45">
@@ -7749,13 +7749,13 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R45" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S45" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T45" t="n">
-        <v>2284.306083296871</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U45" t="n">
         <v>2062.095821155272</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1931.789338669943</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C46" t="n">
-        <v>1931.789338669943</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D46" t="n">
-        <v>1931.789338669943</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K46" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L46" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M46" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N46" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O46" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U46" t="n">
-        <v>2344.749822082216</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V46" t="n">
-        <v>2090.06533387633</v>
+        <v>228.543461271884</v>
       </c>
       <c r="W46" t="n">
-        <v>1931.789338669943</v>
+        <v>228.543461271884</v>
       </c>
       <c r="X46" t="n">
-        <v>1931.789338669943</v>
+        <v>228.543461271884</v>
       </c>
       <c r="Y46" t="n">
-        <v>1931.789338669943</v>
+        <v>228.543461271884</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>233.2169876979182</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8310,10 +8310,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K12" t="n">
-        <v>47.90390621998491</v>
+        <v>108.5094987082738</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K15" t="n">
-        <v>47.90390621998491</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>309.7493254456954</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9246,13 +9246,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>367.8729277488643</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>476.3749567889587</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9480,7 +9480,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K21" t="n">
-        <v>261.4978194579837</v>
+        <v>108.5094987082738</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,13 +9720,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>367.8729277488643</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>476.3749567889587</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9954,7 +9954,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K27" t="n">
-        <v>108.5094987082738</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9969,10 +9969,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,7 +10191,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K30" t="n">
-        <v>261.4978194579837</v>
+        <v>108.5094987082738</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10680,10 +10680,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>254.8897585970532</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10835,7 +10835,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.800181262745</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>108.5094987082737</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10914,7 +10914,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>177.3009884841359</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599042</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K42" t="n">
-        <v>47.90390621998491</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,7 +11148,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>323.3866360392485</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720732</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>414.089049841944</v>
@@ -23303,13 +23303,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.02492487987129</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>8.551741187295193</v>
       </c>
     </row>
     <row r="12">
@@ -23343,13 +23343,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>81.31564129514278</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23385,7 +23385,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23394,7 +23394,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>203.4577711487111</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23492,22 +23492,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>183.4958388525268</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>7.282277168947303</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
         <v>327.0451232326991</v>
@@ -23540,25 +23540,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S14" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23619,19 +23619,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>203.4577711487111</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>108.9366819640819</v>
+        <v>108.936681964082</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704631</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R16" t="n">
         <v>152.8143555761653</v>
@@ -23729,25 +23729,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>357.7540865596212</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>310.0948773780113</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
         <v>163.6851955497072</v>
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>181.3631617334038</v>
@@ -23786,19 +23786,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23817,19 +23817,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>60.36469784837671</v>
       </c>
       <c r="H18" t="n">
-        <v>76.57988169550534</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,10 +23856,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>15.7007382581078</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23932,19 +23932,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>175.2285835524071</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.089049841944</v>
+        <v>400.440064005391</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,25 +24014,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>368.5332003787025</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24051,22 +24051,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>56.01270558407241</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24096,7 +24096,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>53.38246657340278</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24139,16 +24139,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>4.090051078196694</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>214.5288682289405</v>
+        <v>78.27223734092829</v>
       </c>
       <c r="T22" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2893338015361</v>
@@ -24218,10 +24218,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>62.90535776225431</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24251,19 +24251,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>45.08851049235915</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24291,16 +24291,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>14.27705323942851</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>130.2373021845463</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>67.03858805571426</v>
@@ -24330,7 +24330,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24412,22 +24412,22 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S25" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U25" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>197.9246686646403</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>182.5872501244043</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24443,22 +24443,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>88.59585649421405</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>94.34749128237294</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24488,25 +24488,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24531,16 +24531,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>45.00739118865397</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,13 +24567,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>5.910500182201289</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>129.5960985472141</v>
       </c>
       <c r="F28" t="n">
-        <v>54.06789032788008</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J28" t="n">
         <v>54.86879163620181</v>
@@ -24655,10 +24655,10 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24677,28 +24677,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>34.21306031949473</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,25 +24728,25 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>44.45830443587869</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24762,7 +24762,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24804,16 +24804,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>18.08665416601294</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T30" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>203.4577711487112</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>125.6160688907843</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24880,13 +24880,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S31" t="n">
-        <v>32.48477989937004</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T31" t="n">
         <v>225.6194376234954</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24920,22 +24920,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>62.72985278942156</v>
       </c>
       <c r="I32" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24962,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>39.64879024951091</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25008,13 +25008,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>76.57988169550532</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25044,7 +25044,7 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S33" t="n">
-        <v>159.6212195484502</v>
+        <v>70.43910215024454</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25053,7 +25053,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>68.92620236917334</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25093,10 +25093,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I34" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25126,10 +25126,10 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2893338015361</v>
+        <v>177.1092531657383</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25163,16 +25163,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,25 +25202,25 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>135.5590075794209</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>191.2144822035073</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25239,10 +25239,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>112.0459792443682</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25296,7 +25296,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>197.2758902402604</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25312,10 +25312,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>12.73509621594894</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25363,10 +25363,10 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T37" t="n">
-        <v>225.6194376234954</v>
+        <v>208.78157352414</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25388,28 +25388,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>138.3126485638366</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,10 +25436,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S38" t="n">
-        <v>181.3631617334038</v>
+        <v>153.1713336969918</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25448,13 +25448,13 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25485,7 +25485,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.6924183331603</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25515,16 +25515,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S39" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U39" t="n">
-        <v>5.910500182201503</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25546,19 +25546,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>166.1390884630954</v>
       </c>
       <c r="C40" t="n">
-        <v>52.45246356162069</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.4465608509556</v>
@@ -25567,7 +25567,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J40" t="n">
         <v>54.86879163620181</v>
@@ -25591,7 +25591,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R40" t="n">
         <v>152.8143555761653</v>
@@ -25612,7 +25612,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25634,13 +25634,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25679,19 +25679,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
-        <v>51.45091143097164</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>339.8706293977627</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25752,25 +25752,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>157.306005493684</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25795,19 +25795,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>94.64230746492638</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J43" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25834,13 +25834,13 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S43" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2893338015361</v>
+        <v>259.5812229311003</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25871,10 +25871,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>71.38013305833471</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25913,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>253.5135225762619</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25989,16 +25989,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S45" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
-        <v>197.5472709665096</v>
+        <v>143.6184697512195</v>
       </c>
       <c r="U45" t="n">
-        <v>5.910500182201503</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26077,13 +26077,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>162.9941160825822</v>
       </c>
       <c r="W46" t="n">
-        <v>129.8297630822683</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>607892.2889631714</v>
+        <v>607892.2889631717</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>607892.2889631713</v>
+        <v>607892.2889631717</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>607892.2889631719</v>
+        <v>607892.2889631717</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>607892.2889631715</v>
+        <v>607892.2889631717</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>607892.2889631717</v>
+        <v>607892.2889631715</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>607892.2889631713</v>
+        <v>607892.2889631714</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>607892.2889631714</v>
+        <v>607892.2889631713</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>607892.2889631714</v>
+        <v>607892.2889631715</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>607892.2889631714</v>
+        <v>607892.2889631713</v>
       </c>
     </row>
   </sheetData>
@@ -26314,19 +26314,19 @@
         <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>343688.92969348</v>
+        <v>343688.9296934799</v>
       </c>
       <c r="F2" t="n">
-        <v>343688.92969348</v>
+        <v>343688.9296934801</v>
       </c>
       <c r="G2" t="n">
-        <v>343688.92969348</v>
+        <v>343688.9296934799</v>
       </c>
       <c r="H2" t="n">
         <v>343688.92969348</v>
@@ -26335,22 +26335,22 @@
         <v>343688.9296934798</v>
       </c>
       <c r="J2" t="n">
-        <v>343688.9296934797</v>
+        <v>343688.9296934799</v>
       </c>
       <c r="K2" t="n">
+        <v>343688.92969348</v>
+      </c>
+      <c r="L2" t="n">
+        <v>343688.9296934799</v>
+      </c>
+      <c r="M2" t="n">
+        <v>343688.92969348</v>
+      </c>
+      <c r="N2" t="n">
+        <v>343688.92969348</v>
+      </c>
+      <c r="O2" t="n">
         <v>343688.9296934798</v>
-      </c>
-      <c r="L2" t="n">
-        <v>343688.92969348</v>
-      </c>
-      <c r="M2" t="n">
-        <v>343688.9296934798</v>
-      </c>
-      <c r="N2" t="n">
-        <v>343688.9296934801</v>
-      </c>
-      <c r="O2" t="n">
-        <v>343688.9296934799</v>
       </c>
       <c r="P2" t="n">
         <v>343688.92969348</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007602</v>
+        <v>86018.533820076</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>305235.4394336169</v>
+        <v>304227.7958470787</v>
       </c>
       <c r="C4" t="n">
-        <v>305235.4394336169</v>
+        <v>304227.7958470787</v>
       </c>
       <c r="D4" t="n">
-        <v>305235.4394336169</v>
+        <v>304227.7958470787</v>
       </c>
       <c r="E4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="F4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="G4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="H4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="I4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="J4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="K4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="L4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="M4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="N4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="O4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761897</v>
       </c>
       <c r="P4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99391.01068285794</v>
+        <v>100398.6542693962</v>
       </c>
       <c r="C6" t="n">
-        <v>180160.4422144057</v>
+        <v>181168.0858009438</v>
       </c>
       <c r="D6" t="n">
-        <v>180160.4422144057</v>
+        <v>181168.0858009438</v>
       </c>
       <c r="E6" t="n">
-        <v>-71909.44762996615</v>
+        <v>-70855.15507853829</v>
       </c>
       <c r="F6" t="n">
-        <v>273702.8951489866</v>
+        <v>274757.1877004146</v>
       </c>
       <c r="G6" t="n">
-        <v>273702.8951489865</v>
+        <v>274757.1877004144</v>
       </c>
       <c r="H6" t="n">
-        <v>273702.8951489866</v>
+        <v>274757.1877004145</v>
       </c>
       <c r="I6" t="n">
-        <v>273702.8951489864</v>
+        <v>274757.1877004143</v>
       </c>
       <c r="J6" t="n">
-        <v>210642.9525498801</v>
+        <v>211697.2451013082</v>
       </c>
       <c r="K6" t="n">
-        <v>273702.8951489864</v>
+        <v>274757.1877004144</v>
       </c>
       <c r="L6" t="n">
-        <v>273702.8951489865</v>
+        <v>274757.1877004144</v>
       </c>
       <c r="M6" t="n">
-        <v>187684.3613289103</v>
+        <v>188738.6538803384</v>
       </c>
       <c r="N6" t="n">
-        <v>273702.8951489867</v>
+        <v>274757.1877004144</v>
       </c>
       <c r="O6" t="n">
-        <v>273702.8951489865</v>
+        <v>274757.1877004143</v>
       </c>
       <c r="P6" t="n">
-        <v>273702.8951489866</v>
+        <v>274757.1877004144</v>
       </c>
     </row>
   </sheetData>
@@ -26771,10 +26771,10 @@
         <v>301.9048087062786</v>
       </c>
       <c r="N3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="O3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="P3" t="n">
         <v>301.9048087062787</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>331.7898455187701</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27400,7 +27400,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,16 +27421,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27439,7 +27439,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>286.8247010151207</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>49.91195480604611</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>172.3306367815301</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27591,13 +27591,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>156.0574714863295</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,19 +27619,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>186.5164278032447</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>224.9573404408503</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,25 +27692,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>68.07200698240737</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>139.3797871113254</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27822,7 +27822,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>93.55107118671071</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27831,7 +27831,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>121.6721164735665</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>311.7191632230924</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,10 +27862,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>229.0037046816519</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27929,19 +27929,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27950,7 +27950,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27986,13 +27986,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>164.7564125755321</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>160.587919691105</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -28059,7 +28059,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -31993,25 +31993,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I14" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J14" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K14" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L14" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M14" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N14" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O14" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P14" t="n">
         <v>174.5298045144673</v>
@@ -32020,16 +32020,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R14" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S14" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T14" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,22 +32066,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H15" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I15" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J15" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K15" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L15" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M15" t="n">
         <v>164.5381207449218</v>
@@ -32096,7 +32096,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R15" t="n">
         <v>40.31853275515171</v>
@@ -32105,10 +32105,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T15" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H16" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I16" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J16" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K16" t="n">
-        <v>63.25153205354491</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L16" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M16" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N16" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O16" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P16" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R16" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S16" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T16" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33889,7 +33889,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I38" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J38" t="n">
         <v>103.0102241525006</v>
@@ -33910,22 +33910,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P38" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q38" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R38" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S38" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T38" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H39" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I39" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J39" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K39" t="n">
         <v>104.8606541711232</v>
@@ -33980,25 +33980,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M39" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N39" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O39" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P39" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q39" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R39" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S39" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T39" t="n">
         <v>2.617457728311981</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H40" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I40" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J40" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K40" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L40" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M40" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N40" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O40" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P40" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q40" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R40" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S40" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T40" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,7 +34126,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I41" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J41" t="n">
         <v>103.0102241525006</v>
@@ -34147,22 +34147,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P41" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q41" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R41" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S41" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T41" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H42" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I42" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J42" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K42" t="n">
         <v>104.8606541711232</v>
@@ -34217,25 +34217,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M42" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N42" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O42" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P42" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q42" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R42" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S42" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T42" t="n">
         <v>2.617457728311981</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H43" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I43" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J43" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K43" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L43" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M43" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N43" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O43" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P43" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q43" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R43" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S43" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T43" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34705,7 +34705,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34784,7 +34784,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>91.0829537758999</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34796,7 +34796,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,13 +35015,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35030,10 +35030,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>55.51629994036225</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>14.92312141674913</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L12" t="n">
         <v>373.2840556651353</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K14" t="n">
         <v>258.4411848848628</v>
@@ -35653,13 +35653,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M14" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N14" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O14" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P14" t="n">
         <v>265.0955169306804</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L15" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M15" t="n">
-        <v>488.1091505729034</v>
+        <v>332.1534122685989</v>
       </c>
       <c r="N15" t="n">
         <v>516.8936174628016</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L16" t="n">
         <v>108.5302095485535</v>
@@ -35820,7 +35820,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P16" t="n">
-        <v>63.12350311781691</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35966,13 +35966,13 @@
         <v>231.4844522093428</v>
       </c>
       <c r="L18" t="n">
-        <v>370.3166381105403</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M18" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N18" t="n">
-        <v>516.8936174628016</v>
+        <v>513.9261999082067</v>
       </c>
       <c r="O18" t="n">
         <v>405.7701329255822</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>228.5170346547479</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651353</v>
@@ -36218,7 +36218,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>231.4844522093428</v>
       </c>
       <c r="L24" t="n">
-        <v>373.2840556651353</v>
+        <v>370.3166381105403</v>
       </c>
       <c r="M24" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N24" t="n">
-        <v>513.9261999082067</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O24" t="n">
         <v>405.7701329255822</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>75.52871390503797</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651353</v>
@@ -36689,10 +36689,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P27" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>228.5170346547479</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L30" t="n">
         <v>373.2840556651353</v>
@@ -36929,7 +36929,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K36" t="n">
-        <v>231.4844522093428</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L36" t="n">
         <v>373.2840556651353</v>
@@ -37400,10 +37400,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P36" t="n">
-        <v>244.9184791209679</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K38" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L38" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M38" t="n">
         <v>432.2802359107712</v>
@@ -37555,13 +37555,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O38" t="n">
-        <v>355.1946887874302</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P38" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q38" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>231.4844522093428</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
@@ -37634,7 +37634,7 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O39" t="n">
-        <v>189.2088021329886</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P39" t="n">
         <v>308.4914891638518</v>
@@ -37701,13 +37701,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L40" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M40" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N40" t="n">
         <v>127.4430518046842</v>
@@ -37716,7 +37716,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P40" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K41" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L41" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M41" t="n">
         <v>432.2802359107712</v>
@@ -37792,13 +37792,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O41" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P41" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q41" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037669</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651353</v>
@@ -37868,10 +37868,10 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N42" t="n">
-        <v>516.8936174628016</v>
+        <v>360.9378791584966</v>
       </c>
       <c r="O42" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P42" t="n">
         <v>308.4914891638518</v>
@@ -37938,13 +37938,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L43" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M43" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N43" t="n">
         <v>127.4430518046842</v>
@@ -37953,7 +37953,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P43" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788754</v>
       </c>
       <c r="K44" t="n">
         <v>258.4411848848628</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1646697.444851143</v>
+        <v>1679275.659366342</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584668</v>
+        <v>460545.8926584662</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.110075578</v>
+        <v>8768687.11007558</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>62.24100452231477</v>
+      </c>
+      <c r="E2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>75.08620022294134</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -710,13 +712,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -738,22 +740,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -795,13 +797,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>18.50521307233312</v>
       </c>
       <c r="W3" t="n">
-        <v>79.36434637938949</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>168.1666138174382</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,13 +913,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,28 +940,28 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>120.6885423576403</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -987,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>44.16343725408909</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>223.5500084481726</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,22 +1177,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>98.74855378848305</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1212,7 +1214,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1221,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1233,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1266,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>49.23175083062952</v>
       </c>
       <c r="W9" t="n">
-        <v>91.10706346981459</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>379.8759895224489</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>377.6861974687584</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1455,13 +1457,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>76.32943916025816</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>105.9637990594094</v>
@@ -1497,7 +1499,7 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
         <v>197.5472709665096</v>
@@ -1506,7 +1508,7 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V12" t="n">
-        <v>29.34281600071414</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>199.2380028109538</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>226.5674513251595</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1616,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1670,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1731,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>197.5472709665096</v>
+        <v>53.92880121529013</v>
       </c>
       <c r="U15" t="n">
         <v>225.8986597023843</v>
       </c>
       <c r="V15" t="n">
-        <v>29.34281600071414</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>379.6627967245423</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1850,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>96.78116836370016</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1889,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1898,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1929,13 +1931,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>76.32943916025816</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>76.32943916025816</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>105.9637990594094</v>
@@ -2002,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>132.9147347601046</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2044,25 +2046,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>268.9755074231831</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>13.64898583655291</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>101.7096516417155</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2163,22 +2165,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>101.6323748713285</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2210,7 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T21" t="n">
         <v>197.5472709665096</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>87.73906239567792</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2281,16 +2283,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>136.2566308880122</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2315,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.089049841944</v>
+        <v>383.3800865150218</v>
       </c>
       <c r="H23" t="n">
-        <v>264.1397654704448</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2375,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2403,7 +2405,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>143.3680272159724</v>
+        <v>76.32943916025816</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
-        <v>54.21297465918772</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>129.8971817942919</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>268.4916290075113</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>232.6976319503262</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2637,13 +2639,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>136.6941370086349</v>
@@ -2652,7 +2654,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>53.92880121529013</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8986597023843</v>
+        <v>222.3725350189597</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2719,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>16.83786409935511</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2764,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>77.50776027739583</v>
       </c>
     </row>
     <row r="29">
@@ -2789,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2807,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S29" t="n">
         <v>181.3631617334038</v>
@@ -2846,10 +2848,10 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>283.2939540342562</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>149.444446855283</v>
       </c>
     </row>
     <row r="30">
@@ -2874,7 +2876,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>41.75264723147836</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2916,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T30" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>22.44088855367314</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2950,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>43.26585203414595</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>20.81789375578485</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
-        <v>264.3152704432775</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
         <v>163.6851955497072</v>
@@ -3077,19 +3079,19 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S32" t="n">
-        <v>181.3631617334038</v>
+        <v>178.2143500828082</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3153,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S33" t="n">
-        <v>89.18211739820566</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8986597023843</v>
+        <v>219.9881595201828</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3202,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>74.79472562303485</v>
       </c>
       <c r="I34" t="n">
         <v>139.0783256288916</v>
@@ -3241,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>109.1800806357979</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3275,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>364.1303068565968</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
         <v>327.0451232326991</v>
@@ -3311,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S35" t="n">
-        <v>45.80415415398289</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3351,16 +3353,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>45.59910121103272</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
         <v>67.03858805571426</v>
@@ -3390,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8986597023843</v>
+        <v>120.206241369224</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3439,13 +3441,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>124.4245991866017</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3475,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>16.83786409935544</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>20.27746778754634</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S38" t="n">
-        <v>28.19182803641198</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3599,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
-        <v>0.2713807262491367</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,22 +3629,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S39" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U39" t="n">
         <v>225.8986597023843</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>121.4165796131833</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>13.69289171884184</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>135.8803768022634</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3718,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,22 +3793,22 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>62.72757422197675</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>29.86047128070634</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3864,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>197.5472709665096</v>
@@ -3876,13 +3878,13 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V42" t="n">
-        <v>75.49458165574123</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>108.0765134097</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J43" t="n">
         <v>54.86879163620181</v>
@@ -3943,16 +3945,16 @@
         <v>40.5744171370463</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S43" t="n">
-        <v>214.5288682289405</v>
+        <v>167.9289512464142</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>26.70811087043582</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>318.6147334280092</v>
       </c>
       <c r="E44" t="n">
-        <v>310.5502370139271</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4186,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V46" t="n">
-        <v>89.14352724124579</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>43.3560697996877</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>366.1018663125844</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C2" t="n">
-        <v>366.1018663125844</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D2" t="n">
-        <v>122.6530896684844</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="E2" t="n">
-        <v>122.6530896684844</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4358,22 +4360,22 @@
         <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>366.1018663125844</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>366.1018663125844</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V2" t="n">
-        <v>366.1018663125844</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W2" t="n">
-        <v>366.1018663125844</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X2" t="n">
-        <v>366.1018663125844</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y2" t="n">
-        <v>366.1018663125844</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>453.4809361619635</v>
+        <v>307.1033079837604</v>
       </c>
       <c r="C3" t="n">
-        <v>453.4809361619635</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D3" t="n">
-        <v>304.5465265007123</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E3" t="n">
-        <v>304.5465265007123</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F3" t="n">
-        <v>158.0119685275972</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H3" t="n">
         <v>19.28114311021272</v>
@@ -4410,22 +4412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4443,16 +4445,16 @@
         <v>533.6469426057913</v>
       </c>
       <c r="V3" t="n">
-        <v>533.6469426057913</v>
+        <v>514.9548081892932</v>
       </c>
       <c r="W3" t="n">
-        <v>453.4809361619635</v>
+        <v>514.9548081892932</v>
       </c>
       <c r="X3" t="n">
-        <v>453.4809361619635</v>
+        <v>307.1033079837604</v>
       </c>
       <c r="Y3" t="n">
-        <v>453.4809361619635</v>
+        <v>307.1033079837604</v>
       </c>
     </row>
     <row r="4">
@@ -4504,19 +4506,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>467.067986854209</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="C5" t="n">
-        <v>467.067986854209</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="D5" t="n">
-        <v>297.2027203719481</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="E5" t="n">
-        <v>297.2027203719481</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="F5" t="n">
-        <v>290.2572196227447</v>
+        <v>247.340362388537</v>
       </c>
       <c r="G5" t="n">
-        <v>274.7999090013961</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="X5" t="n">
-        <v>710.516763498309</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="Y5" t="n">
-        <v>710.516763498309</v>
+        <v>254.2858631377404</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>292.9211302503287</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>292.9211302503287</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>292.9211302503287</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>292.9211302503287</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>292.9211302503287</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>154.1903048329442</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4650,46 +4652,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V6" t="n">
-        <v>500.6814290152826</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W6" t="n">
-        <v>500.6814290152826</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X6" t="n">
-        <v>500.6814290152826</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y6" t="n">
-        <v>292.9211302503287</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4741,31 +4743,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
         <v>19.28114311021272</v>
@@ -4778,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>266.3558523848238</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C8" t="n">
-        <v>266.3558523848238</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>266.3558523848238</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>266.3558523848238</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F8" t="n">
-        <v>259.4103516356203</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K8" t="n">
         <v>122.2961490211351</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>266.3558523848238</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>266.3558523848238</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>266.3558523848238</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>266.3558523848238</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5698337361135</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C9" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,19 +4889,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4914,19 +4916,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>634.6640077999109</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>634.6640077999109</v>
+        <v>813.1585848204618</v>
       </c>
       <c r="W9" t="n">
-        <v>542.6366709617143</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="X9" t="n">
-        <v>334.7851707561815</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y9" t="n">
-        <v>334.7851707561815</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="10">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>900.847885737694</v>
+        <v>1570.897369376658</v>
       </c>
       <c r="C11" t="n">
-        <v>900.847885737694</v>
+        <v>1201.934852436247</v>
       </c>
       <c r="D11" t="n">
-        <v>542.5821871309436</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="E11" t="n">
-        <v>542.5821871309436</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F11" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G11" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H11" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
@@ -5063,28 +5065,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S11" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T11" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U11" t="n">
-        <v>1613.411982645667</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V11" t="n">
-        <v>1282.349095302096</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W11" t="n">
-        <v>1282.349095302096</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X11" t="n">
-        <v>1282.349095302096</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y11" t="n">
-        <v>900.847885737694</v>
+        <v>1954.610490106405</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C12" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D12" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E12" t="n">
-        <v>506.2543262569397</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="F12" t="n">
-        <v>359.7197682838247</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G12" t="n">
         <v>221.6448824165167</v>
@@ -5118,7 +5120,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K12" t="n">
         <v>121.6684232076319</v>
@@ -5145,25 +5147,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S12" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T12" t="n">
-        <v>2084.763385350902</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U12" t="n">
-        <v>1856.582921005059</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="13">
@@ -5252,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1159.911464587051</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="C14" t="n">
-        <v>790.948947646639</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="D14" t="n">
-        <v>432.6832490398886</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="E14" t="n">
-        <v>46.89499644164432</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F14" t="n">
-        <v>46.89499644164432</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G14" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H14" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I14" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L14" t="n">
-        <v>762.5916738244548</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M14" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N14" t="n">
         <v>1610.799342072557</v>
@@ -5306,22 +5308,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T14" t="n">
-        <v>2124.767062713795</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U14" t="n">
-        <v>2124.767062713795</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V14" t="n">
-        <v>2124.767062713795</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W14" t="n">
-        <v>2124.767062713795</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X14" t="n">
-        <v>1751.301304452715</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y14" t="n">
-        <v>1361.161972476903</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="15">
@@ -5355,40 +5357,40 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K15" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L15" t="n">
-        <v>645.6158192373775</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M15" t="n">
-        <v>974.4476973832905</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N15" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O15" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P15" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S15" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T15" t="n">
-        <v>2084.763385350902</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U15" t="n">
-        <v>1856.582921005059</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V15" t="n">
         <v>1826.94371292353</v>
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>513.6162693049855</v>
+        <v>1961.252047612982</v>
       </c>
       <c r="C17" t="n">
-        <v>144.6537523645738</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="D17" t="n">
-        <v>144.6537523645738</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="E17" t="n">
-        <v>144.6537523645738</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="F17" t="n">
-        <v>46.89499644164432</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G17" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H17" t="n">
         <v>46.89499644164432</v>
@@ -5513,16 +5515,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L17" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M17" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N17" t="n">
         <v>1610.799342072557</v>
@@ -5537,28 +5539,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S17" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T17" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U17" t="n">
-        <v>2016.589854876113</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V17" t="n">
-        <v>2016.589854876113</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W17" t="n">
-        <v>1663.821199605999</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X17" t="n">
-        <v>1290.355441344919</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y17" t="n">
-        <v>900.2161093691072</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="18">
@@ -5577,10 +5579,10 @@
         <v>298.7453260127371</v>
       </c>
       <c r="E18" t="n">
-        <v>298.7453260127371</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="F18" t="n">
-        <v>298.7453260127371</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G18" t="n">
         <v>221.6448824165167</v>
@@ -5595,22 +5597,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K18" t="n">
-        <v>276.0646041288937</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L18" t="n">
-        <v>645.6158192373775</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M18" t="n">
-        <v>1128.843878304552</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N18" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O18" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P18" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q18" t="n">
         <v>2344.749822082216</v>
@@ -5647,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>350.0884872080407</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C19" t="n">
-        <v>181.1523042801338</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D19" t="n">
         <v>46.89499644164432</v>
@@ -5692,31 +5694,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q19" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R19" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S19" t="n">
-        <v>350.0884872080407</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T19" t="n">
-        <v>350.0884872080407</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U19" t="n">
-        <v>350.0884872080407</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V19" t="n">
-        <v>350.0884872080407</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W19" t="n">
-        <v>350.0884872080407</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X19" t="n">
-        <v>350.0884872080407</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y19" t="n">
-        <v>350.0884872080407</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1584.684223757015</v>
+        <v>826.8434181716636</v>
       </c>
       <c r="C20" t="n">
-        <v>1215.721706816603</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="D20" t="n">
-        <v>857.4560082098526</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="E20" t="n">
-        <v>471.6677556116084</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F20" t="n">
-        <v>60.6818508220008</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G20" t="n">
         <v>46.89499644164432</v>
@@ -5750,16 +5752,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K20" t="n">
         <v>392.9020949275675</v>
       </c>
       <c r="L20" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M20" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N20" t="n">
         <v>1610.799342072557</v>
@@ -5774,28 +5776,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S20" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T20" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U20" t="n">
-        <v>2344.749822082216</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V20" t="n">
-        <v>2344.749822082216</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W20" t="n">
-        <v>2344.749822082216</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="X20" t="n">
-        <v>1971.284063821136</v>
+        <v>826.8434181716636</v>
       </c>
       <c r="Y20" t="n">
-        <v>1971.284063821136</v>
+        <v>826.8434181716636</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>783.3663200545602</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C21" t="n">
-        <v>608.9132907734332</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D21" t="n">
-        <v>608.9132907734332</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E21" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F21" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G21" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H21" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I21" t="n">
         <v>46.89499644164432</v>
@@ -5832,22 +5834,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K21" t="n">
-        <v>121.6684232076319</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L21" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M21" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N21" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O21" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P21" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q21" t="n">
         <v>2344.749822082216</v>
@@ -5856,25 +5858,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S21" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T21" t="n">
-        <v>2084.763385350902</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U21" t="n">
-        <v>1856.582921005059</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V21" t="n">
-        <v>1621.430812773317</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W21" t="n">
-        <v>1367.193456045115</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X21" t="n">
-        <v>1159.341955839582</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y21" t="n">
-        <v>951.5816570746283</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.89499644164432</v>
+        <v>426.1201086060705</v>
       </c>
       <c r="C22" t="n">
-        <v>46.89499644164432</v>
+        <v>426.1201086060705</v>
       </c>
       <c r="D22" t="n">
-        <v>46.89499644164432</v>
+        <v>276.0034691937348</v>
       </c>
       <c r="E22" t="n">
-        <v>46.89499644164432</v>
+        <v>276.0034691937348</v>
       </c>
       <c r="F22" t="n">
-        <v>46.89499644164432</v>
+        <v>276.0034691937348</v>
       </c>
       <c r="G22" t="n">
-        <v>46.89499644164432</v>
+        <v>276.0034691937348</v>
       </c>
       <c r="H22" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I22" t="n">
         <v>46.89499644164432</v>
@@ -5929,31 +5931,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q22" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R22" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S22" t="n">
-        <v>274.7934182835589</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T22" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U22" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V22" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W22" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X22" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>897.3131892316403</v>
+        <v>1958.149982018095</v>
       </c>
       <c r="C23" t="n">
-        <v>897.3131892316403</v>
+        <v>1589.187465077683</v>
       </c>
       <c r="D23" t="n">
-        <v>897.3131892316403</v>
+        <v>1230.921766470932</v>
       </c>
       <c r="E23" t="n">
-        <v>897.3131892316403</v>
+        <v>845.1335138726881</v>
       </c>
       <c r="F23" t="n">
-        <v>897.3131892316403</v>
+        <v>434.1476090830806</v>
       </c>
       <c r="G23" t="n">
-        <v>479.0414217145251</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H23" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L23" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M23" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N23" t="n">
         <v>1610.799342072557</v>
@@ -6008,31 +6010,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q23" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R23" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S23" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T23" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U23" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V23" t="n">
-        <v>2013.686934738646</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W23" t="n">
-        <v>1660.918279468532</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X23" t="n">
-        <v>1287.452521207452</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y23" t="n">
-        <v>897.3131892316403</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="24">
@@ -6051,40 +6053,40 @@
         <v>298.7453260127371</v>
       </c>
       <c r="E24" t="n">
-        <v>153.9291369056942</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="F24" t="n">
-        <v>153.9291369056942</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G24" t="n">
-        <v>153.9291369056942</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H24" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J24" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K24" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L24" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M24" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N24" t="n">
-        <v>1637.630816213677</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O24" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P24" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q24" t="n">
         <v>2344.749822082216</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.89499644164432</v>
+        <v>1924.359402288451</v>
       </c>
       <c r="C25" t="n">
-        <v>46.89499644164432</v>
+        <v>1924.359402288451</v>
       </c>
       <c r="D25" t="n">
-        <v>46.89499644164432</v>
+        <v>1924.359402288451</v>
       </c>
       <c r="E25" t="n">
-        <v>46.89499644164432</v>
+        <v>1924.359402288451</v>
       </c>
       <c r="F25" t="n">
-        <v>46.89499644164432</v>
+        <v>1924.359402288451</v>
       </c>
       <c r="G25" t="n">
-        <v>46.89499644164432</v>
+        <v>1924.359402288451</v>
       </c>
       <c r="H25" t="n">
-        <v>46.89499644164432</v>
+        <v>1924.359402288451</v>
       </c>
       <c r="I25" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J25" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K25" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L25" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N25" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O25" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P25" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q25" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R25" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S25" t="n">
-        <v>391.0727469424309</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T25" t="n">
-        <v>391.0727469424309</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U25" t="n">
-        <v>391.0727469424309</v>
+        <v>2055.568676828139</v>
       </c>
       <c r="V25" t="n">
-        <v>336.3121664786049</v>
+        <v>2055.568676828139</v>
       </c>
       <c r="W25" t="n">
-        <v>46.89499644164432</v>
+        <v>1924.359402288451</v>
       </c>
       <c r="X25" t="n">
-        <v>46.89499644164432</v>
+        <v>1924.359402288451</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.89499644164432</v>
+        <v>1924.359402288451</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1971.284063821136</v>
+        <v>703.8869147040414</v>
       </c>
       <c r="C26" t="n">
-        <v>1602.321546880725</v>
+        <v>703.8869147040414</v>
       </c>
       <c r="D26" t="n">
-        <v>1244.055848273974</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="E26" t="n">
-        <v>858.26759567573</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F26" t="n">
-        <v>447.2816908861225</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G26" t="n">
-        <v>447.2816908861225</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H26" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I26" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L26" t="n">
         <v>762.591673824455</v>
@@ -6248,28 +6250,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S26" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T26" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="U26" t="n">
-        <v>2344.749822082216</v>
+        <v>1833.394742014089</v>
       </c>
       <c r="V26" t="n">
-        <v>2344.749822082216</v>
+        <v>1833.394742014089</v>
       </c>
       <c r="W26" t="n">
-        <v>2344.749822082216</v>
+        <v>1480.626086743975</v>
       </c>
       <c r="X26" t="n">
-        <v>1971.284063821136</v>
+        <v>1480.626086743975</v>
       </c>
       <c r="Y26" t="n">
-        <v>1971.284063821136</v>
+        <v>1090.486754768163</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.8792202047736</v>
+        <v>625.6945070595847</v>
       </c>
       <c r="C27" t="n">
-        <v>814.4261909236466</v>
+        <v>451.2414777784577</v>
       </c>
       <c r="D27" t="n">
-        <v>665.4917812623953</v>
+        <v>451.2414777784577</v>
       </c>
       <c r="E27" t="n">
-        <v>506.2543262569397</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="F27" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G27" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H27" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I27" t="n">
         <v>46.89499644164432</v>
@@ -6306,19 +6308,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K27" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L27" t="n">
-        <v>645.6158192373775</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M27" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N27" t="n">
-        <v>1640.568559592725</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O27" t="n">
-        <v>2042.280991189052</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P27" t="n">
         <v>2344.749822082216</v>
@@ -6327,28 +6329,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R27" t="n">
-        <v>2290.276285501115</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S27" t="n">
-        <v>2290.276285501115</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T27" t="n">
-        <v>2290.276285501115</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U27" t="n">
-        <v>2062.095821155272</v>
+        <v>1698.911108010084</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.94371292353</v>
+        <v>1463.758999778341</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.706356195328</v>
+        <v>1209.521643050139</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.854855989795</v>
+        <v>1001.670142844607</v>
       </c>
       <c r="Y27" t="n">
-        <v>1157.094557224842</v>
+        <v>793.9098440796527</v>
       </c>
     </row>
     <row r="28">
@@ -6358,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>63.90293997634646</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C28" t="n">
-        <v>63.90293997634646</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D28" t="n">
-        <v>63.90293997634646</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E28" t="n">
         <v>46.89499644164432</v>
@@ -6412,22 +6414,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T28" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U28" t="n">
-        <v>318.5874281822333</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="V28" t="n">
-        <v>63.90293997634646</v>
+        <v>125.1856633885088</v>
       </c>
       <c r="W28" t="n">
-        <v>63.90293997634646</v>
+        <v>125.1856633885088</v>
       </c>
       <c r="X28" t="n">
-        <v>63.90293997634646</v>
+        <v>125.1856633885088</v>
       </c>
       <c r="Y28" t="n">
-        <v>63.90293997634646</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>542.5821871309436</v>
+        <v>405.1606950483948</v>
       </c>
       <c r="C29" t="n">
-        <v>542.5821871309436</v>
+        <v>405.1606950483948</v>
       </c>
       <c r="D29" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E29" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F29" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G29" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H29" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I29" t="n">
         <v>46.89499644164432</v>
@@ -6485,28 +6487,28 @@
         <v>2344.749822082217</v>
       </c>
       <c r="R29" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S29" t="n">
-        <v>2161.554709220192</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T29" t="n">
-        <v>1941.571949851771</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U29" t="n">
-        <v>1941.571949851771</v>
+        <v>1613.411982645668</v>
       </c>
       <c r="V29" t="n">
-        <v>1655.416440726259</v>
+        <v>1282.349095302097</v>
       </c>
       <c r="W29" t="n">
-        <v>1302.647785456145</v>
+        <v>929.5804400319828</v>
       </c>
       <c r="X29" t="n">
-        <v>929.1820271950653</v>
+        <v>556.114681770903</v>
       </c>
       <c r="Y29" t="n">
-        <v>929.1820271950653</v>
+        <v>405.1606950483948</v>
       </c>
     </row>
     <row r="30">
@@ -6516,10 +6518,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.8792202047736</v>
+        <v>882.1192016864297</v>
       </c>
       <c r="C30" t="n">
-        <v>814.4261909236466</v>
+        <v>707.6661724053027</v>
       </c>
       <c r="D30" t="n">
         <v>665.4917812623953</v>
@@ -6543,49 +6545,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K30" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L30" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M30" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N30" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O30" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P30" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q30" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R30" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S30" t="n">
-        <v>2284.306083296871</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T30" t="n">
-        <v>2084.763385350902</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="U30" t="n">
-        <v>2062.095821155272</v>
+        <v>1955.335802636929</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.94371292353</v>
+        <v>1720.183694405186</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.706356195328</v>
+        <v>1465.946337676985</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.854855989795</v>
+        <v>1258.094837471452</v>
       </c>
       <c r="Y30" t="n">
-        <v>1157.094557224842</v>
+        <v>1050.334538706498</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2123.957242938686</v>
+        <v>90.597877284216</v>
       </c>
       <c r="C31" t="n">
-        <v>1955.021060010779</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D31" t="n">
-        <v>1804.904420598444</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K31" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L31" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M31" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N31" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O31" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U31" t="n">
-        <v>2344.749822082216</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V31" t="n">
-        <v>2344.749822082216</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W31" t="n">
-        <v>2344.749822082216</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="X31" t="n">
-        <v>2344.749822082216</v>
+        <v>90.597877284216</v>
       </c>
       <c r="Y31" t="n">
-        <v>2123.957242938686</v>
+        <v>90.597877284216</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1223.272650669856</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="C32" t="n">
-        <v>1223.272650669856</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="D32" t="n">
-        <v>865.0069520631055</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="E32" t="n">
-        <v>479.2186994648612</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="F32" t="n">
-        <v>479.2186994648612</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G32" t="n">
-        <v>479.2186994648612</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H32" t="n">
         <v>212.2335778049849</v>
@@ -6725,25 +6727,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S32" t="n">
-        <v>2087.181164129222</v>
+        <v>2090.361781958106</v>
       </c>
       <c r="T32" t="n">
-        <v>1867.1984047608</v>
+        <v>2090.361781958106</v>
       </c>
       <c r="U32" t="n">
-        <v>1613.411982645668</v>
+        <v>2090.361781958106</v>
       </c>
       <c r="V32" t="n">
-        <v>1613.411982645668</v>
+        <v>2090.361781958106</v>
       </c>
       <c r="W32" t="n">
-        <v>1613.411982645668</v>
+        <v>1737.593126687992</v>
       </c>
       <c r="X32" t="n">
-        <v>1613.411982645668</v>
+        <v>1737.593126687992</v>
       </c>
       <c r="Y32" t="n">
-        <v>1223.272650669856</v>
+        <v>1347.453794712181</v>
       </c>
     </row>
     <row r="33">
@@ -6777,16 +6779,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J33" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K33" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L33" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M33" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N33" t="n">
         <v>1637.630816213677</v>
@@ -6801,16 +6803,16 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R33" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S33" t="n">
-        <v>2254.666875215342</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T33" t="n">
-        <v>2055.124177269372</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="U33" t="n">
-        <v>1826.94371292353</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V33" t="n">
         <v>1826.94371292353</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>242.8011754972942</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="C34" t="n">
-        <v>242.8011754972942</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="D34" t="n">
-        <v>242.8011754972942</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="E34" t="n">
-        <v>242.8011754972942</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="F34" t="n">
-        <v>242.8011754972942</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="G34" t="n">
-        <v>242.8011754972942</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="H34" t="n">
         <v>242.8011754972942</v>
@@ -6889,19 +6891,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U34" t="n">
-        <v>497.4856637031811</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V34" t="n">
-        <v>242.8011754972942</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W34" t="n">
-        <v>242.8011754972942</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="X34" t="n">
-        <v>242.8011754972942</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="Y34" t="n">
-        <v>242.8011754972942</v>
+        <v>318.3514033993496</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>953.5680919205511</v>
+        <v>1697.62486235271</v>
       </c>
       <c r="C35" t="n">
-        <v>953.5680919205511</v>
+        <v>1328.662345412298</v>
       </c>
       <c r="D35" t="n">
-        <v>953.5680919205511</v>
+        <v>1328.662345412298</v>
       </c>
       <c r="E35" t="n">
-        <v>953.5680919205511</v>
+        <v>1328.662345412298</v>
       </c>
       <c r="F35" t="n">
-        <v>542.5821871309436</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G35" t="n">
         <v>542.5821871309436</v>
@@ -6935,16 +6937,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J35" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L35" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M35" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N35" t="n">
         <v>1610.799342072557</v>
@@ -6959,28 +6961,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S35" t="n">
-        <v>2298.482999704456</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T35" t="n">
-        <v>2298.482999704456</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U35" t="n">
-        <v>2044.696577589323</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="V35" t="n">
-        <v>1713.633690245753</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="W35" t="n">
-        <v>1713.633690245753</v>
+        <v>1697.62486235271</v>
       </c>
       <c r="X35" t="n">
-        <v>1340.167931984673</v>
+        <v>1697.62486235271</v>
       </c>
       <c r="Y35" t="n">
-        <v>1340.167931984673</v>
+        <v>1697.62486235271</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C36" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D36" t="n">
-        <v>298.7453260127371</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E36" t="n">
-        <v>252.6856278197748</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F36" t="n">
-        <v>252.6856278197748</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G36" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H36" t="n">
         <v>114.6107419524668</v>
@@ -7017,49 +7019,49 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K36" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L36" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M36" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N36" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O36" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P36" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q36" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R36" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S36" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T36" t="n">
-        <v>1923.529830251457</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="U36" t="n">
-        <v>1695.349365905614</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V36" t="n">
-        <v>1460.197257673872</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W36" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X36" t="n">
-        <v>998.1084007401373</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y36" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1783.87624508755</v>
+        <v>386.9759942927801</v>
       </c>
       <c r="C37" t="n">
-        <v>1783.87624508755</v>
+        <v>386.9759942927801</v>
       </c>
       <c r="D37" t="n">
-        <v>1783.87624508755</v>
+        <v>386.9759942927801</v>
       </c>
       <c r="E37" t="n">
-        <v>1783.87624508755</v>
+        <v>386.9759942927801</v>
       </c>
       <c r="F37" t="n">
-        <v>1783.87624508755</v>
+        <v>386.9759942927801</v>
       </c>
       <c r="G37" t="n">
-        <v>1783.87624508755</v>
+        <v>386.9759942927801</v>
       </c>
       <c r="H37" t="n">
-        <v>1783.87624508755</v>
+        <v>227.9994316161934</v>
       </c>
       <c r="I37" t="n">
-        <v>1783.87624508755</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J37" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K37" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L37" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M37" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N37" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O37" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T37" t="n">
-        <v>2327.741878547514</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U37" t="n">
-        <v>2038.560733293437</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V37" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W37" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X37" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y37" t="n">
-        <v>1783.87624508755</v>
+        <v>386.9759942927801</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1743.521813467506</v>
+        <v>436.3398040765473</v>
       </c>
       <c r="C38" t="n">
-        <v>1374.559296527095</v>
+        <v>67.37728713613558</v>
       </c>
       <c r="D38" t="n">
-        <v>1016.293597920344</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E38" t="n">
-        <v>630.5053453221001</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F38" t="n">
-        <v>630.5053453221001</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G38" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H38" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I38" t="n">
         <v>46.89499644164432</v>
@@ -7175,10 +7177,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L38" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M38" t="n">
         <v>1190.549107376119</v>
@@ -7196,28 +7198,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S38" t="n">
-        <v>2316.273228106043</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T38" t="n">
-        <v>2096.290468737621</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U38" t="n">
-        <v>2096.290468737621</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V38" t="n">
-        <v>2096.290468737621</v>
+        <v>1939.313389647675</v>
       </c>
       <c r="W38" t="n">
-        <v>1743.521813467506</v>
+        <v>1586.544734377561</v>
       </c>
       <c r="X38" t="n">
-        <v>1743.521813467506</v>
+        <v>1213.078976116481</v>
       </c>
       <c r="Y38" t="n">
-        <v>1743.521813467506</v>
+        <v>822.9396441406691</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>882.1192016864297</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C39" t="n">
-        <v>707.6661724053027</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D39" t="n">
-        <v>558.7317627440515</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E39" t="n">
-        <v>399.494307738596</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F39" t="n">
-        <v>252.959749765481</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G39" t="n">
-        <v>114.884863898173</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H39" t="n">
         <v>114.6107419524668</v>
@@ -7251,7 +7253,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J39" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K39" t="n">
         <v>121.6684232076319</v>
@@ -7275,28 +7277,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S39" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T39" t="n">
-        <v>2183.516266982771</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U39" t="n">
-        <v>1955.335802636929</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V39" t="n">
-        <v>1720.183694405186</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="W39" t="n">
-        <v>1465.946337676985</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X39" t="n">
-        <v>1258.094837471452</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y39" t="n">
-        <v>1050.334538706498</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="40">
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>365.947818781887</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="C40" t="n">
-        <v>197.0116358539801</v>
+        <v>184.1479023025165</v>
       </c>
       <c r="D40" t="n">
-        <v>46.89499644164432</v>
+        <v>184.1479023025165</v>
       </c>
       <c r="E40" t="n">
-        <v>46.89499644164432</v>
+        <v>184.1479023025165</v>
       </c>
       <c r="F40" t="n">
         <v>46.89499644164432</v>
@@ -7333,7 +7335,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K40" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L40" t="n">
         <v>194.9121237200978</v>
@@ -7366,16 +7368,16 @@
         <v>607.7685734363102</v>
       </c>
       <c r="V40" t="n">
-        <v>607.7685734363102</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="W40" t="n">
-        <v>607.7685734363102</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="X40" t="n">
-        <v>379.7790225382929</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="Y40" t="n">
-        <v>379.7790225382929</v>
+        <v>353.0840852304234</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1339.356344518795</v>
+        <v>1159.911464587051</v>
       </c>
       <c r="C41" t="n">
-        <v>1339.356344518795</v>
+        <v>790.948947646639</v>
       </c>
       <c r="D41" t="n">
-        <v>1339.356344518795</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="E41" t="n">
-        <v>953.5680919205511</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F41" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G41" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H41" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I41" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J41" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L41" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M41" t="n">
         <v>1190.549107376119</v>
@@ -7439,22 +7441,22 @@
         <v>2087.181164129222</v>
       </c>
       <c r="T41" t="n">
-        <v>2087.181164129222</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U41" t="n">
-        <v>2087.181164129222</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V41" t="n">
-        <v>1756.118276785651</v>
+        <v>1550.050796562862</v>
       </c>
       <c r="W41" t="n">
-        <v>1756.118276785651</v>
+        <v>1550.050796562862</v>
       </c>
       <c r="X41" t="n">
-        <v>1725.956184582917</v>
+        <v>1550.050796562862</v>
       </c>
       <c r="Y41" t="n">
-        <v>1725.956184582917</v>
+        <v>1159.911464587051</v>
       </c>
     </row>
     <row r="42">
@@ -7488,46 +7490,46 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J42" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K42" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L42" t="n">
-        <v>645.6158192373777</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M42" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N42" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O42" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P42" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S42" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T42" t="n">
-        <v>1923.529830251457</v>
+        <v>2145.207124136247</v>
       </c>
       <c r="U42" t="n">
-        <v>1695.349365905614</v>
+        <v>1917.026659790404</v>
       </c>
       <c r="V42" t="n">
-        <v>1619.092212717997</v>
+        <v>1681.874551558662</v>
       </c>
       <c r="W42" t="n">
-        <v>1364.854855989795</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X42" t="n">
         <v>1364.854855989795</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>102.3180182963936</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="C43" t="n">
-        <v>102.3180182963936</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="D43" t="n">
-        <v>102.3180182963936</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="E43" t="n">
-        <v>102.3180182963936</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="F43" t="n">
-        <v>102.3180182963936</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="G43" t="n">
-        <v>102.3180182963936</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="H43" t="n">
-        <v>102.3180182963936</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="I43" t="n">
-        <v>102.3180182963936</v>
+        <v>1839.299266942299</v>
       </c>
       <c r="J43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K43" t="n">
-        <v>87.46721626702977</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L43" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N43" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O43" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q43" t="n">
-        <v>566.78431370192</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="R43" t="n">
-        <v>566.78431370192</v>
+        <v>2149.407627422406</v>
       </c>
       <c r="S43" t="n">
-        <v>350.0884872080407</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="T43" t="n">
-        <v>350.0884872080407</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="U43" t="n">
-        <v>323.1105974399237</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="V43" t="n">
-        <v>323.1105974399237</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="W43" t="n">
-        <v>323.1105974399237</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="X43" t="n">
-        <v>323.1105974399237</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="Y43" t="n">
-        <v>102.3180182963936</v>
+        <v>1979.7824241432</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1685.526967532542</v>
+        <v>737.6905774507522</v>
       </c>
       <c r="C44" t="n">
-        <v>1685.526967532542</v>
+        <v>368.7280605103405</v>
       </c>
       <c r="D44" t="n">
-        <v>1685.526967532542</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E44" t="n">
-        <v>1371.839859437666</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F44" t="n">
-        <v>960.8539546480588</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G44" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
@@ -7673,25 +7675,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S44" t="n">
-        <v>2270.376276991246</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T44" t="n">
-        <v>2270.376276991246</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U44" t="n">
-        <v>2016.589854876113</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="V44" t="n">
-        <v>1685.526967532542</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="W44" t="n">
-        <v>1685.526967532542</v>
+        <v>1514.429749490686</v>
       </c>
       <c r="X44" t="n">
-        <v>1685.526967532542</v>
+        <v>1514.429749490686</v>
       </c>
       <c r="Y44" t="n">
-        <v>1685.526967532542</v>
+        <v>1124.290417514874</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7727,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J45" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K45" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L45" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M45" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N45" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O45" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P45" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
@@ -7834,22 +7836,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T46" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U46" t="n">
-        <v>318.5874281822333</v>
+        <v>90.68900634031877</v>
       </c>
       <c r="V46" t="n">
-        <v>228.543461271884</v>
+        <v>90.68900634031877</v>
       </c>
       <c r="W46" t="n">
-        <v>228.543461271884</v>
+        <v>90.68900634031877</v>
       </c>
       <c r="X46" t="n">
-        <v>228.543461271884</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y46" t="n">
-        <v>228.543461271884</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M3" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,10 +8300,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8310,10 +8312,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>247.3552705420797</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N9" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>108.5094987082738</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>65.48544285212002</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9012,10 +9014,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>309.7493254456954</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>415.7693643006702</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9245,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>108.5094987082738</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>476.3749567889587</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9482,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K21" t="n">
-        <v>108.5094987082738</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>367.8729277488643</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9729,13 +9731,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>177.3009884841359</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9956,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9969,7 +9971,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>315.4953510853424</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>57.08896698613911</v>
@@ -10191,10 +10193,10 @@
         <v>65.48544285212</v>
       </c>
       <c r="K30" t="n">
-        <v>108.5094987082738</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>367.8729277488643</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>261.4978194579837</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>415.7693643006697</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>47.90390621998491</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>415.7693643006697</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>108.5094987082737</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -11078,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599042</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11145,10 +11147,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>402.132053707116</v>
       </c>
       <c r="N42" t="n">
-        <v>323.3866360392485</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>261.4978194579836</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509598</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>2.857852141031685</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23324,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.551741187295193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23343,13 +23345,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>81.31564129514278</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23385,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23394,7 +23396,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>203.4577711487111</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>183.4958388525268</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>138.7054404458481</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23548,7 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
         <v>251.2485578939812</v>
@@ -23558,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23619,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S15" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>143.6184697512195</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>203.4577711487111</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>3.071044938938314</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23738,16 +23740,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>310.0948773780113</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>163.6851955497072</v>
@@ -23777,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S17" t="n">
         <v>181.3631617334038</v>
@@ -23786,19 +23788,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23817,13 +23819,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>81.31564129514278</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>60.36469784837671</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23890,10 +23892,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>15.7007382581078</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23932,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R19" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>400.440064005391</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
         <v>327.0451232326991</v>
@@ -24014,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>268.0214490367536</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24051,22 +24053,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>56.01270558407241</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24096,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,10 +24144,10 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H22" t="n">
-        <v>157.3867970498209</v>
+        <v>69.64773465414295</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>54.86879163620181</v>
@@ -24169,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S22" t="n">
-        <v>78.27223734092829</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U22" t="n">
         <v>286.2893338015361</v>
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>30.70896332692212</v>
       </c>
       <c r="H23" t="n">
-        <v>62.90535776225431</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24263,16 +24265,16 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24291,7 +24293,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>14.27705323942851</v>
+        <v>81.31564129514278</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24303,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I25" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>54.86879163620181</v>
@@ -24412,19 +24414,19 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T25" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>197.9246686646403</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>156.6258165422991</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>86.19141261317168</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
-        <v>94.34749128237294</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24525,13 +24527,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -24540,7 +24542,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>5.910500182201289</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>3.526124683424598</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24607,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>129.5960985472141</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24652,10 +24654,10 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T28" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>141.0768930746989</v>
       </c>
     </row>
     <row r="29">
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24695,10 +24697,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -24734,10 +24736,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>44.45830443587869</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24746,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>236.7934918007705</v>
       </c>
     </row>
     <row r="30">
@@ -24762,7 +24764,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>105.6924183331604</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S30" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U30" t="n">
-        <v>203.4577711487112</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24838,13 +24840,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>123.9809690644819</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>125.6160688907843</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24892,7 +24894,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24901,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>62.72985278942156</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24965,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>3.148811650595633</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25041,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>70.43910215024454</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>5.910500182201503</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H34" t="n">
-        <v>157.3867970498209</v>
+        <v>82.59207142678602</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25129,13 +25131,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>177.1092531657383</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25163,10 +25165,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>42.74573888511463</v>
       </c>
       <c r="G35" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25199,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>135.5590075794209</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25239,16 +25241,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>112.0459792443682</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>105.6924183331604</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25327,13 +25329,13 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>139.0783256288916</v>
+        <v>14.65372644228985</v>
       </c>
       <c r="J37" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25363,13 +25365,13 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T37" t="n">
-        <v>208.78157352414</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>334.4055738331366</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>153.1713336969918</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25485,7 +25487,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>105.6924183331603</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25515,22 +25517,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>130.2784035477363</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>166.1390884630954</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>9.540671220667832</v>
       </c>
       <c r="G40" t="n">
         <v>167.4465608509556</v>
@@ -25567,7 +25569,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J40" t="n">
         <v>54.86879163620181</v>
@@ -25591,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R40" t="n">
         <v>152.8143555761653</v>
@@ -25606,13 +25608,13 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>265.0246842481582</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>339.8706293977627</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25752,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25764,13 +25766,13 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>157.306005493684</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>143.6184697512196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>46.59991698252631</v>
       </c>
       <c r="T43" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U43" t="n">
-        <v>259.5812229311003</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>36.06830819267373</v>
       </c>
       <c r="E44" t="n">
-        <v>71.38013305833471</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26074,19 +26076,19 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T46" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>162.9941160825822</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>182.3535855893494</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>607892.2889631717</v>
+        <v>607892.2889631714</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>607892.2889631717</v>
+        <v>607892.2889631713</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>607892.2889631717</v>
+        <v>607892.2889631714</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>607892.2889631717</v>
+        <v>607892.2889631714</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>607892.2889631714</v>
+        <v>607892.2889631715</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>607892.2889631715</v>
+        <v>607892.2889631714</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>607892.2889631714</v>
+        <v>607892.2889631715</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>607892.2889631713</v>
+        <v>607892.2889631715</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>607892.2889631715</v>
+        <v>607892.2889631717</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117842</v>
@@ -26320,37 +26322,37 @@
         <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>343688.9296934799</v>
+        <v>343688.92969348</v>
       </c>
       <c r="F2" t="n">
-        <v>343688.9296934801</v>
+        <v>343688.92969348</v>
       </c>
       <c r="G2" t="n">
-        <v>343688.9296934799</v>
+        <v>343688.92969348</v>
       </c>
       <c r="H2" t="n">
         <v>343688.92969348</v>
       </c>
       <c r="I2" t="n">
+        <v>343688.92969348</v>
+      </c>
+      <c r="J2" t="n">
+        <v>343688.92969348</v>
+      </c>
+      <c r="K2" t="n">
         <v>343688.9296934798</v>
       </c>
-      <c r="J2" t="n">
-        <v>343688.9296934799</v>
-      </c>
-      <c r="K2" t="n">
-        <v>343688.92969348</v>
-      </c>
       <c r="L2" t="n">
-        <v>343688.9296934799</v>
+        <v>343688.9296934801</v>
       </c>
       <c r="M2" t="n">
-        <v>343688.92969348</v>
+        <v>343688.9296934798</v>
       </c>
       <c r="N2" t="n">
         <v>343688.92969348</v>
       </c>
       <c r="O2" t="n">
-        <v>343688.9296934798</v>
+        <v>343688.9296934799</v>
       </c>
       <c r="P2" t="n">
         <v>343688.92969348</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.533820076</v>
+        <v>86018.53382007602</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26454,10 +26456,10 @@
         <v>26710.01986761898</v>
       </c>
       <c r="O4" t="n">
+        <v>26710.01986761898</v>
+      </c>
+      <c r="P4" t="n">
         <v>26710.01986761897</v>
-      </c>
-      <c r="P4" t="n">
-        <v>26710.01986761898</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100398.6542693962</v>
+        <v>100398.6542693961</v>
       </c>
       <c r="C6" t="n">
         <v>181168.0858009438</v>
@@ -26528,10 +26530,10 @@
         <v>181168.0858009438</v>
       </c>
       <c r="E6" t="n">
-        <v>-70855.15507853829</v>
+        <v>-70855.15507853824</v>
       </c>
       <c r="F6" t="n">
-        <v>274757.1877004146</v>
+        <v>274757.1877004144</v>
       </c>
       <c r="G6" t="n">
         <v>274757.1877004144</v>
@@ -26540,25 +26542,25 @@
         <v>274757.1877004145</v>
       </c>
       <c r="I6" t="n">
+        <v>274757.1877004144</v>
+      </c>
+      <c r="J6" t="n">
+        <v>211697.2451013083</v>
+      </c>
+      <c r="K6" t="n">
         <v>274757.1877004143</v>
       </c>
-      <c r="J6" t="n">
-        <v>211697.2451013082</v>
-      </c>
-      <c r="K6" t="n">
-        <v>274757.1877004144</v>
-      </c>
       <c r="L6" t="n">
-        <v>274757.1877004144</v>
+        <v>274757.1877004146</v>
       </c>
       <c r="M6" t="n">
-        <v>188738.6538803384</v>
+        <v>188738.6538803382</v>
       </c>
       <c r="N6" t="n">
         <v>274757.1877004144</v>
       </c>
       <c r="O6" t="n">
-        <v>274757.1877004143</v>
+        <v>274757.1877004144</v>
       </c>
       <c r="P6" t="n">
         <v>274757.1877004144</v>
@@ -26771,7 +26773,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="N3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="O3" t="n">
         <v>301.9048087062787</v>
@@ -27382,13 +27384,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>292.4420370983682</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>331.7898455187701</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27400,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27430,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27458,22 +27460,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27515,13 +27517,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>214.2953740770921</v>
       </c>
       <c r="W3" t="n">
-        <v>172.3306367815301</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27576,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27591,7 +27593,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>153.1320617711229</v>
+        <v>155.8535025062293</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>186.5164278032447</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,13 +27633,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,28 +27660,28 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>207.0637161124945</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27707,13 +27709,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>68.07200698240737</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -27740,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>28.14497471274697</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27813,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27822,7 +27824,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>93.55107118671071</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,19 +27864,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,22 +27897,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>229.0037046816519</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27932,7 +27934,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27941,7 +27943,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27953,7 +27955,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27986,19 +27988,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>183.5688363187957</v>
       </c>
       <c r="W9" t="n">
-        <v>160.587919691105</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -33889,7 +33891,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I38" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J38" t="n">
         <v>103.0102241525006</v>
@@ -33910,22 +33912,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P38" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q38" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R38" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S38" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T38" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U38" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H39" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I39" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J39" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K39" t="n">
         <v>104.8606541711232</v>
@@ -33980,25 +33982,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M39" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N39" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O39" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P39" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q39" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R39" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S39" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T39" t="n">
         <v>2.617457728311981</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H40" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I40" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J40" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K40" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L40" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M40" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N40" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O40" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P40" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q40" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R40" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S40" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T40" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34778,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M3" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34796,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,10 +35020,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35030,10 +35032,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>113.3808631277494</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,13 +35257,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K12" t="n">
-        <v>75.52871390503797</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L12" t="n">
         <v>373.2840556651353</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K15" t="n">
         <v>231.4844522093428</v>
@@ -35732,10 +35734,10 @@
         <v>373.2840556651352</v>
       </c>
       <c r="M15" t="n">
-        <v>332.1534122685989</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N15" t="n">
-        <v>516.8936174628016</v>
+        <v>453.3206074199182</v>
       </c>
       <c r="O15" t="n">
         <v>405.7701329255822</v>
@@ -35744,7 +35746,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>231.4844522093428</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L18" t="n">
         <v>373.2840556651353</v>
@@ -35972,7 +35974,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N18" t="n">
-        <v>513.9261999082067</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O18" t="n">
         <v>405.7701329255822</v>
@@ -35981,7 +35983,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>75.52871390503797</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651353</v>
@@ -36218,7 +36220,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q21" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K24" t="n">
         <v>231.4844522093428</v>
       </c>
       <c r="L24" t="n">
-        <v>370.3166381105403</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M24" t="n">
         <v>488.1091505729034</v>
@@ -36449,13 +36451,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O24" t="n">
-        <v>405.7701329255822</v>
+        <v>189.2088021329886</v>
       </c>
       <c r="P24" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651353</v>
@@ -36689,7 +36691,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P27" t="n">
-        <v>305.5240716092571</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36911,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>75.52871390503797</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L30" t="n">
-        <v>373.2840556651353</v>
+        <v>370.3166381105403</v>
       </c>
       <c r="M30" t="n">
         <v>488.1091505729034</v>
@@ -36929,7 +36931,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q30" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K33" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651353</v>
@@ -37157,7 +37159,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N33" t="n">
-        <v>516.8936174628016</v>
+        <v>453.3206074199177</v>
       </c>
       <c r="O33" t="n">
         <v>405.7701329255822</v>
@@ -37385,7 +37387,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K36" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L36" t="n">
         <v>373.2840556651353</v>
@@ -37394,7 +37396,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N36" t="n">
-        <v>516.8936174628016</v>
+        <v>453.3206074199177</v>
       </c>
       <c r="O36" t="n">
         <v>405.7701329255822</v>
@@ -37403,7 +37405,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K38" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L38" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M38" t="n">
         <v>432.2802359107712</v>
@@ -37555,13 +37557,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O38" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P38" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q38" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K39" t="n">
-        <v>75.52871390503797</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
@@ -37634,7 +37636,7 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O39" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P39" t="n">
         <v>308.4914891638518</v>
@@ -37701,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L40" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M40" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N40" t="n">
         <v>127.4430518046842</v>
@@ -37716,7 +37718,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P40" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37798,7 +37800,7 @@
         <v>265.0955169306804</v>
       </c>
       <c r="Q41" t="n">
-        <v>121.0739155037669</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K42" t="n">
         <v>231.4844522093429</v>
@@ -37865,10 +37867,10 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M42" t="n">
-        <v>488.1091505729034</v>
+        <v>424.5361405300196</v>
       </c>
       <c r="N42" t="n">
-        <v>360.9378791584966</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O42" t="n">
         <v>405.7701329255823</v>
@@ -37877,7 +37879,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K45" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
@@ -38105,7 +38107,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N45" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O45" t="n">
         <v>405.7701329255823</v>
@@ -38114,7 +38116,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1679275.659366342</v>
+        <v>1637451.877697335</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584662</v>
+        <v>460545.8926584664</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.11007558</v>
+        <v>8768687.110075578</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7953712.14668492</v>
+        <v>7953712.146684919</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>62.24100452231477</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -712,13 +712,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>78.2008536957747</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -743,25 +743,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>120.1832748619387</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>18.50521307233312</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>120.6885423576403</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -983,22 +983,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>110.4474014451885</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>223.5500084481726</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,58 +1147,58 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
+        <v>84.41978777916125</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1217,10 +1217,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>36.43923176655773</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1271,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>49.23175083062952</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>379.8759895224489</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>192.8947525257006</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1457,19 +1457,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>76.32943916025816</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
-        <v>105.9637990594094</v>
+        <v>67.30996878196338</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.8986597023843</v>
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>36.48436605884934</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>268.9755074231831</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>226.5674513251595</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.089049841944</v>
+        <v>375.8074618719557</v>
       </c>
       <c r="H14" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1688,10 +1688,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>116.6957934042433</v>
       </c>
       <c r="T15" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
         <v>225.8986597023843</v>
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>36.48436605884923</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4465608509556</v>
+        <v>103.9357482121867</v>
       </c>
       <c r="H16" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620182</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>379.6627967245423</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>327.0451232326991</v>
+        <v>107.911557831152</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1928,16 +1928,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>70.1040359673529</v>
       </c>
       <c r="E18" t="n">
-        <v>76.32943916025816</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
         <v>105.9637990594094</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>159.6212195484502</v>
@@ -1979,7 +1979,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2893338015361</v>
+        <v>268.7418428881282</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>268.9755074231831</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,19 +2086,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>126.9727812916326</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>101.7096516417155</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2171,16 +2171,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>91.6867458199809</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>99.0394663168247</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>197.5472709665096</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>87.73906239567792</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>54.21297465918772</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,19 +2320,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>383.3800865150218</v>
+        <v>405.0020575964883</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2405,7 +2405,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>76.32943916025816</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2414,10 +2414,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>105.9637990594094</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>101.4950217895004</v>
       </c>
       <c r="W25" t="n">
-        <v>129.8971817942919</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,10 +2557,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>268.4916290075113</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>163.249023646015</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2645,16 +2645,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U27" t="n">
-        <v>222.3725350189597</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2702,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>126.7429076534165</v>
       </c>
     </row>
     <row r="28">
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>268.9755074231831</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>77.50776027739583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>181.3631617334038</v>
@@ -2848,10 +2848,10 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>60.74121092791027</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>149.444446855283</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2876,7 +2876,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>41.75264723147836</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2888,7 +2888,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>67.03858805571426</v>
@@ -2924,10 +2924,10 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8986597023843</v>
+        <v>28.62276946212386</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>43.26585203414595</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2893338015361</v>
+        <v>268.7418428881282</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3037,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>102.9013068748132</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>414.089049841944</v>
@@ -3049,7 +3049,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S32" t="n">
-        <v>178.2143500828082</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3122,13 +3122,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.83930139749142</v>
+        <v>6.456834824088546</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U33" t="n">
-        <v>219.9881595201828</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3195,22 +3195,22 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>37.7903929317234</v>
       </c>
       <c r="H34" t="n">
-        <v>74.79472562303485</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>364.1303068565968</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>362.4150396299759</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3359,13 +3359,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.456834824088546</v>
       </c>
       <c r="S36" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U36" t="n">
-        <v>120.206241369224</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3441,13 +3441,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>124.4245991866017</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>268.7418428881282</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>20.27746778754634</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006113</v>
+        <v>55.39547437842323</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3590,19 +3590,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6941370086349</v>
+        <v>90.88144631532467</v>
       </c>
       <c r="H39" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S39" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>197.5472709665096</v>
@@ -3641,10 +3641,10 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>121.4165796131833</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>120.1263698699159</v>
       </c>
       <c r="F40" t="n">
-        <v>135.8803768022634</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>62.72757422197675</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>351.8251894796513</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3827,7 +3827,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
         <v>197.5472709665096</v>
@@ -3881,10 +3881,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>108.0765134097</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>60.17837635920852</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3918,10 +3918,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3942,25 +3942,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>167.9289512464142</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>268.7418428881282</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>318.6147334280092</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>181.3631617334038</v>
@@ -4033,19 +4033,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>42.66903017014536</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>77.77714797055052</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4076,7 +4076,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U45" t="n">
         <v>225.8986597023843</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T46" t="n">
-        <v>225.6194376234954</v>
+        <v>54.21297465918772</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>43.3560697996877</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348.0024326625565</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C2" t="n">
-        <v>348.0024326625565</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D2" t="n">
-        <v>285.1327311248648</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E2" t="n">
-        <v>41.68395448076474</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F2" t="n">
-        <v>34.73845373156126</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T2" t="n">
-        <v>591.4512093066566</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U2" t="n">
-        <v>591.4512093066566</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V2" t="n">
-        <v>348.0024326625565</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="W2" t="n">
-        <v>348.0024326625565</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="X2" t="n">
-        <v>348.0024326625565</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="Y2" t="n">
-        <v>348.0024326625565</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>307.1033079837604</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C3" t="n">
-        <v>132.6502787026334</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D3" t="n">
-        <v>132.6502787026334</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>132.6502787026334</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>132.6502787026334</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4439,22 +4439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>514.9548081892932</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>514.9548081892932</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>307.1033079837604</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>307.1033079837604</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4521,19 +4521,19 @@
         <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>254.2858631377404</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C5" t="n">
-        <v>254.2858631377404</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D5" t="n">
-        <v>254.2858631377404</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E5" t="n">
-        <v>254.2858631377404</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F5" t="n">
-        <v>247.340362388537</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>254.2858631377404</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W5" t="n">
-        <v>254.2858631377404</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X5" t="n">
-        <v>254.2858631377404</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y5" t="n">
-        <v>254.2858631377404</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>383.2428491569326</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N6" t="n">
-        <v>621.8469951458151</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O6" t="n">
-        <v>860.4511411346975</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>660.701031422288</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="U6" t="n">
-        <v>660.701031422288</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="V6" t="n">
-        <v>660.701031422288</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="W6" t="n">
-        <v>434.8929420806995</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="X6" t="n">
-        <v>227.0414418751666</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>577.9072497513741</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>749.627473042513</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C8" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D8" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E8" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4804,7 +4804,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
         <v>122.2961490211351</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>193.7341723913397</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>56.84258057770322</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,46 +4889,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>813.1585848204618</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>569.7098081763618</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>569.7098081763618</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y9" t="n">
-        <v>361.9495094114078</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1570.897369376658</v>
+        <v>1539.569324489713</v>
       </c>
       <c r="C11" t="n">
-        <v>1201.934852436247</v>
+        <v>1539.569324489713</v>
       </c>
       <c r="D11" t="n">
-        <v>843.6691538294961</v>
+        <v>1181.303625882962</v>
       </c>
       <c r="E11" t="n">
-        <v>457.8809012312519</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="F11" t="n">
-        <v>46.89499644164432</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G11" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H11" t="n">
         <v>46.89499644164432</v>
@@ -5041,16 +5041,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L11" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M11" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N11" t="n">
         <v>1610.799342072557</v>
@@ -5065,28 +5065,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S11" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T11" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="U11" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="V11" t="n">
-        <v>2344.749822082216</v>
+        <v>1892.337979759827</v>
       </c>
       <c r="W11" t="n">
-        <v>2344.749822082216</v>
+        <v>1539.569324489713</v>
       </c>
       <c r="X11" t="n">
-        <v>2344.749822082216</v>
+        <v>1539.569324489713</v>
       </c>
       <c r="Y11" t="n">
-        <v>1954.610490106405</v>
+        <v>1539.569324489713</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>622.1327649551154</v>
+        <v>882.1192016864297</v>
       </c>
       <c r="C12" t="n">
-        <v>447.6797356739884</v>
+        <v>707.6661724053027</v>
       </c>
       <c r="D12" t="n">
-        <v>298.7453260127371</v>
+        <v>558.7317627440515</v>
       </c>
       <c r="E12" t="n">
-        <v>221.6448824165167</v>
+        <v>399.494307738596</v>
       </c>
       <c r="F12" t="n">
-        <v>221.6448824165167</v>
+        <v>252.959749765481</v>
       </c>
       <c r="G12" t="n">
-        <v>221.6448824165167</v>
+        <v>114.884863898173</v>
       </c>
       <c r="H12" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I12" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K12" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L12" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M12" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N12" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O12" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P12" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q12" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R12" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S12" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T12" t="n">
-        <v>1923.529830251457</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="U12" t="n">
-        <v>1695.349365905614</v>
+        <v>1955.335802636929</v>
       </c>
       <c r="V12" t="n">
-        <v>1460.197257673872</v>
+        <v>1720.183694405186</v>
       </c>
       <c r="W12" t="n">
-        <v>1205.95990094567</v>
+        <v>1465.946337676985</v>
       </c>
       <c r="X12" t="n">
-        <v>998.1084007401373</v>
+        <v>1258.094837471452</v>
       </c>
       <c r="Y12" t="n">
-        <v>790.3481019751835</v>
+        <v>1050.334538706498</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C13" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D13" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E13" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F13" t="n">
-        <v>570.9156784273715</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G13" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H13" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J13" t="n">
         <v>46.89499644164432</v>
@@ -5232,19 +5232,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U13" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V13" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W13" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X13" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y13" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2344.749822082216</v>
+        <v>1223.272650669855</v>
       </c>
       <c r="C14" t="n">
-        <v>2115.893810642661</v>
+        <v>1223.272650669855</v>
       </c>
       <c r="D14" t="n">
-        <v>1757.628112035911</v>
+        <v>1223.272650669855</v>
       </c>
       <c r="E14" t="n">
-        <v>1371.839859437666</v>
+        <v>837.4843980716112</v>
       </c>
       <c r="F14" t="n">
-        <v>960.8539546480588</v>
+        <v>426.4984932820036</v>
       </c>
       <c r="G14" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H14" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I14" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L14" t="n">
-        <v>762.5916738244553</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M14" t="n">
         <v>1190.549107376119</v>
@@ -5302,28 +5302,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S14" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T14" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U14" t="n">
-        <v>2344.749822082216</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V14" t="n">
-        <v>2344.749822082216</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="W14" t="n">
-        <v>2344.749822082216</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="X14" t="n">
-        <v>2344.749822082216</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="Y14" t="n">
-        <v>2344.749822082216</v>
+        <v>1223.272650669855</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.8792202047736</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="C15" t="n">
-        <v>814.4261909236466</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="D15" t="n">
         <v>665.4917812623953</v>
@@ -5357,22 +5357,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>106.8945330050502</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K15" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L15" t="n">
-        <v>705.6153558007834</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N15" t="n">
-        <v>1637.630816213677</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O15" t="n">
-        <v>2039.343247810003</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P15" t="n">
         <v>2344.749822082216</v>
@@ -5381,28 +5381,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S15" t="n">
-        <v>2344.749822082216</v>
+        <v>2166.431544504706</v>
       </c>
       <c r="T15" t="n">
-        <v>2290.276285501115</v>
+        <v>1966.888846558737</v>
       </c>
       <c r="U15" t="n">
-        <v>2062.095821155272</v>
+        <v>1738.708382212894</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.94371292353</v>
+        <v>1503.556273981152</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.706356195328</v>
+        <v>1249.31891725295</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.854855989795</v>
+        <v>1041.467417047417</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.094557224842</v>
+        <v>833.7071182824634</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>607.7685734363101</v>
+        <v>151.8806006963783</v>
       </c>
       <c r="C16" t="n">
-        <v>607.7685734363101</v>
+        <v>151.8806006963783</v>
       </c>
       <c r="D16" t="n">
-        <v>607.7685734363101</v>
+        <v>151.8806006963783</v>
       </c>
       <c r="E16" t="n">
-        <v>607.7685734363101</v>
+        <v>151.8806006963783</v>
       </c>
       <c r="F16" t="n">
-        <v>570.9156784273715</v>
+        <v>151.8806006963783</v>
       </c>
       <c r="G16" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H16" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J16" t="n">
         <v>46.89499644164432</v>
@@ -5442,46 +5442,46 @@
         <v>87.46721626702976</v>
       </c>
       <c r="L16" t="n">
-        <v>194.9121237200977</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M16" t="n">
-        <v>318.5868368362074</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N16" t="n">
-        <v>444.7554581228447</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O16" t="n">
-        <v>545.2763053496714</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T16" t="n">
-        <v>607.7685734363101</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U16" t="n">
-        <v>607.7685734363101</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="V16" t="n">
-        <v>607.7685734363101</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="W16" t="n">
-        <v>607.7685734363101</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="X16" t="n">
-        <v>607.7685734363101</v>
+        <v>151.8806006963783</v>
       </c>
       <c r="Y16" t="n">
-        <v>607.7685734363101</v>
+        <v>151.8806006963783</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1961.252047612982</v>
+        <v>1090.486754768163</v>
       </c>
       <c r="C17" t="n">
-        <v>1592.28953067257</v>
+        <v>1090.486754768163</v>
       </c>
       <c r="D17" t="n">
-        <v>1592.28953067257</v>
+        <v>732.2210561614127</v>
       </c>
       <c r="E17" t="n">
-        <v>1206.501278074326</v>
+        <v>732.2210561614127</v>
       </c>
       <c r="F17" t="n">
-        <v>795.5153732847182</v>
+        <v>321.2351513718051</v>
       </c>
       <c r="G17" t="n">
-        <v>377.243605767603</v>
+        <v>321.2351513718051</v>
       </c>
       <c r="H17" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I17" t="n">
         <v>46.89499644164432</v>
@@ -5539,28 +5539,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S17" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T17" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="U17" t="n">
-        <v>2344.749822082216</v>
+        <v>1833.394742014089</v>
       </c>
       <c r="V17" t="n">
-        <v>2344.749822082216</v>
+        <v>1833.394742014089</v>
       </c>
       <c r="W17" t="n">
-        <v>2344.749822082216</v>
+        <v>1480.626086743975</v>
       </c>
       <c r="X17" t="n">
-        <v>2344.749822082216</v>
+        <v>1480.626086743975</v>
       </c>
       <c r="Y17" t="n">
-        <v>2344.749822082216</v>
+        <v>1090.486754768163</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>622.1327649551154</v>
+        <v>910.756968086303</v>
       </c>
       <c r="C18" t="n">
-        <v>447.6797356739884</v>
+        <v>736.303938805176</v>
       </c>
       <c r="D18" t="n">
-        <v>298.7453260127371</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E18" t="n">
-        <v>221.6448824165167</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F18" t="n">
-        <v>221.6448824165167</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G18" t="n">
         <v>221.6448824165167</v>
@@ -5594,16 +5594,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K18" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L18" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M18" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N18" t="n">
         <v>1486.172378671464</v>
@@ -5618,28 +5618,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R18" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S18" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T18" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U18" t="n">
-        <v>1695.349365905614</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="V18" t="n">
-        <v>1460.197257673872</v>
+        <v>1748.821460805059</v>
       </c>
       <c r="W18" t="n">
-        <v>1205.95990094567</v>
+        <v>1494.584104076858</v>
       </c>
       <c r="X18" t="n">
-        <v>998.1084007401373</v>
+        <v>1286.732603871325</v>
       </c>
       <c r="Y18" t="n">
-        <v>790.3481019751835</v>
+        <v>1078.972305106371</v>
       </c>
     </row>
     <row r="19">
@@ -5706,10 +5706,10 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U19" t="n">
-        <v>318.5874281822333</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V19" t="n">
-        <v>318.5874281822333</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W19" t="n">
         <v>46.89499644164432</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>826.8434181716636</v>
+        <v>1490.260073913009</v>
       </c>
       <c r="C20" t="n">
-        <v>457.8809012312519</v>
+        <v>1121.297556972598</v>
       </c>
       <c r="D20" t="n">
-        <v>457.8809012312519</v>
+        <v>763.0318583658473</v>
       </c>
       <c r="E20" t="n">
-        <v>457.8809012312519</v>
+        <v>377.243605767603</v>
       </c>
       <c r="F20" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G20" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H20" t="n">
         <v>46.89499644164432</v>
@@ -5776,28 +5776,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S20" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T20" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U20" t="n">
-        <v>1613.411982645667</v>
+        <v>2216.494487444204</v>
       </c>
       <c r="V20" t="n">
-        <v>1282.349095302096</v>
+        <v>2216.494487444204</v>
       </c>
       <c r="W20" t="n">
-        <v>929.5804400319823</v>
+        <v>1863.725832174089</v>
       </c>
       <c r="X20" t="n">
-        <v>826.8434181716636</v>
+        <v>1490.260073913009</v>
       </c>
       <c r="Y20" t="n">
-        <v>826.8434181716636</v>
+        <v>1490.260073913009</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>622.1327649551154</v>
+        <v>843.8100588399052</v>
       </c>
       <c r="C21" t="n">
-        <v>447.6797356739884</v>
+        <v>669.3570295587782</v>
       </c>
       <c r="D21" t="n">
-        <v>298.7453260127371</v>
+        <v>520.4226198975269</v>
       </c>
       <c r="E21" t="n">
-        <v>139.5078710072816</v>
+        <v>361.1851648920714</v>
       </c>
       <c r="F21" t="n">
-        <v>46.89499644164432</v>
+        <v>214.6506069189564</v>
       </c>
       <c r="G21" t="n">
-        <v>46.89499644164432</v>
+        <v>214.6506069189564</v>
       </c>
       <c r="H21" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I21" t="n">
         <v>46.89499644164432</v>
@@ -5834,49 +5834,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K21" t="n">
-        <v>273.1268607498447</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L21" t="n">
-        <v>642.6780758583286</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M21" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N21" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O21" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P21" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q21" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R21" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S21" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T21" t="n">
-        <v>1923.529830251457</v>
+        <v>2145.207124136247</v>
       </c>
       <c r="U21" t="n">
-        <v>1695.349365905614</v>
+        <v>1917.026659790404</v>
       </c>
       <c r="V21" t="n">
-        <v>1460.197257673872</v>
+        <v>1681.874551558662</v>
       </c>
       <c r="W21" t="n">
-        <v>1205.95990094567</v>
+        <v>1427.63719483046</v>
       </c>
       <c r="X21" t="n">
-        <v>998.1084007401373</v>
+        <v>1219.785694624927</v>
       </c>
       <c r="Y21" t="n">
-        <v>790.3481019751835</v>
+        <v>1012.025395859973</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>426.1201086060705</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C22" t="n">
-        <v>426.1201086060705</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D22" t="n">
-        <v>276.0034691937348</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E22" t="n">
-        <v>276.0034691937348</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F22" t="n">
-        <v>276.0034691937348</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G22" t="n">
-        <v>276.0034691937348</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H22" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I22" t="n">
         <v>46.89499644164432</v>
@@ -5937,25 +5937,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S22" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T22" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="U22" t="n">
-        <v>607.7685734363102</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V22" t="n">
-        <v>607.7685734363102</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W22" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X22" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y22" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1958.149982018095</v>
+        <v>841.7762365110889</v>
       </c>
       <c r="C23" t="n">
-        <v>1589.187465077683</v>
+        <v>841.7762365110889</v>
       </c>
       <c r="D23" t="n">
-        <v>1230.921766470932</v>
+        <v>841.7762365110889</v>
       </c>
       <c r="E23" t="n">
-        <v>845.1335138726881</v>
+        <v>455.9879839128446</v>
       </c>
       <c r="F23" t="n">
-        <v>434.1476090830806</v>
+        <v>455.9879839128446</v>
       </c>
       <c r="G23" t="n">
         <v>46.89499644164432</v>
@@ -6028,13 +6028,13 @@
         <v>2344.749822082216</v>
       </c>
       <c r="W23" t="n">
-        <v>2344.749822082216</v>
+        <v>1991.981166812102</v>
       </c>
       <c r="X23" t="n">
-        <v>2344.749822082216</v>
+        <v>1618.515408551022</v>
       </c>
       <c r="Y23" t="n">
-        <v>2344.749822082216</v>
+        <v>1228.376076575211</v>
       </c>
     </row>
     <row r="24">
@@ -6053,16 +6053,16 @@
         <v>298.7453260127371</v>
       </c>
       <c r="E24" t="n">
-        <v>221.6448824165167</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F24" t="n">
-        <v>221.6448824165167</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="G24" t="n">
-        <v>221.6448824165167</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="H24" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
@@ -6080,7 +6080,7 @@
         <v>1188.843414867958</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O24" t="n">
         <v>1887.88481026779</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1924.359402288451</v>
+        <v>215.8311793695513</v>
       </c>
       <c r="C25" t="n">
-        <v>1924.359402288451</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D25" t="n">
-        <v>1924.359402288451</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E25" t="n">
-        <v>1924.359402288451</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F25" t="n">
-        <v>1924.359402288451</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G25" t="n">
-        <v>1924.359402288451</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H25" t="n">
-        <v>1924.359402288451</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K25" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L25" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M25" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N25" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O25" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U25" t="n">
-        <v>2055.568676828139</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V25" t="n">
-        <v>2055.568676828139</v>
+        <v>505.2483494065119</v>
       </c>
       <c r="W25" t="n">
-        <v>1924.359402288451</v>
+        <v>215.8311793695513</v>
       </c>
       <c r="X25" t="n">
-        <v>1924.359402288451</v>
+        <v>215.8311793695513</v>
       </c>
       <c r="Y25" t="n">
-        <v>1924.359402288451</v>
+        <v>215.8311793695513</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>703.8869147040414</v>
+        <v>1219.917533497415</v>
       </c>
       <c r="C26" t="n">
-        <v>703.8869147040414</v>
+        <v>850.9550165570038</v>
       </c>
       <c r="D26" t="n">
-        <v>432.6832490398886</v>
+        <v>850.9550165570038</v>
       </c>
       <c r="E26" t="n">
-        <v>46.89499644164432</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="F26" t="n">
-        <v>46.89499644164432</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G26" t="n">
         <v>46.89499644164432</v>
@@ -6226,10 +6226,10 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L26" t="n">
         <v>762.591673824455</v>
@@ -6250,28 +6250,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S26" t="n">
-        <v>2087.181164129222</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T26" t="n">
-        <v>2087.181164129222</v>
+        <v>1996.656705537349</v>
       </c>
       <c r="U26" t="n">
-        <v>1833.394742014089</v>
+        <v>1996.656705537349</v>
       </c>
       <c r="V26" t="n">
-        <v>1833.394742014089</v>
+        <v>1996.656705537349</v>
       </c>
       <c r="W26" t="n">
-        <v>1480.626086743975</v>
+        <v>1996.656705537349</v>
       </c>
       <c r="X26" t="n">
-        <v>1480.626086743975</v>
+        <v>1996.656705537349</v>
       </c>
       <c r="Y26" t="n">
-        <v>1090.486754768163</v>
+        <v>1606.517373561537</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>625.6945070595847</v>
+        <v>701.8699246762143</v>
       </c>
       <c r="C27" t="n">
-        <v>451.2414777784577</v>
+        <v>527.4168953950873</v>
       </c>
       <c r="D27" t="n">
-        <v>451.2414777784577</v>
+        <v>527.4168953950873</v>
       </c>
       <c r="E27" t="n">
-        <v>292.0040227730022</v>
+        <v>368.1794403896317</v>
       </c>
       <c r="F27" t="n">
-        <v>292.0040227730022</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G27" t="n">
-        <v>153.9291369056942</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H27" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I27" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K27" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L27" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M27" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N27" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O27" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P27" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
@@ -6338,19 +6338,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U27" t="n">
-        <v>1698.911108010084</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V27" t="n">
-        <v>1463.758999778341</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W27" t="n">
-        <v>1209.521643050139</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X27" t="n">
-        <v>1001.670142844607</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y27" t="n">
-        <v>793.9098440796527</v>
+        <v>870.0852616962823</v>
       </c>
     </row>
     <row r="28">
@@ -6414,19 +6414,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T28" t="n">
-        <v>379.8701515943957</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U28" t="n">
-        <v>379.8701515943957</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V28" t="n">
-        <v>125.1856633885088</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W28" t="n">
-        <v>125.1856633885088</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X28" t="n">
-        <v>125.1856633885088</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y28" t="n">
         <v>46.89499644164432</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>405.1606950483948</v>
+        <v>377.243605767603</v>
       </c>
       <c r="C29" t="n">
-        <v>405.1606950483948</v>
+        <v>377.243605767603</v>
       </c>
       <c r="D29" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="E29" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="F29" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G29" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H29" t="n">
         <v>46.89499644164432</v>
@@ -6487,28 +6487,28 @@
         <v>2344.749822082217</v>
       </c>
       <c r="R29" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S29" t="n">
-        <v>2087.181164129222</v>
+        <v>2161.554709220193</v>
       </c>
       <c r="T29" t="n">
-        <v>1867.1984047608</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U29" t="n">
-        <v>1613.411982645668</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="V29" t="n">
-        <v>1282.349095302097</v>
+        <v>1880.21719133873</v>
       </c>
       <c r="W29" t="n">
-        <v>929.5804400319828</v>
+        <v>1527.448536068616</v>
       </c>
       <c r="X29" t="n">
-        <v>556.114681770903</v>
+        <v>1153.982777807536</v>
       </c>
       <c r="Y29" t="n">
-        <v>405.1606950483948</v>
+        <v>763.8434458317248</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>882.1192016864297</v>
+        <v>881.8450797407235</v>
       </c>
       <c r="C30" t="n">
-        <v>707.6661724053027</v>
+        <v>707.3920504595965</v>
       </c>
       <c r="D30" t="n">
-        <v>665.4917812623953</v>
+        <v>558.4576407983452</v>
       </c>
       <c r="E30" t="n">
-        <v>506.2543262569397</v>
+        <v>399.2201857928898</v>
       </c>
       <c r="F30" t="n">
-        <v>359.7197682838247</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="G30" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H30" t="n">
         <v>114.6107419524668</v>
@@ -6542,25 +6542,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J30" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K30" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L30" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M30" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N30" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O30" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P30" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q30" t="n">
         <v>2344.749822082216</v>
@@ -6572,22 +6572,22 @@
         <v>2183.516266982771</v>
       </c>
       <c r="T30" t="n">
-        <v>2183.516266982771</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U30" t="n">
-        <v>1955.335802636929</v>
+        <v>1955.061680691222</v>
       </c>
       <c r="V30" t="n">
-        <v>1720.183694405186</v>
+        <v>1719.90957245948</v>
       </c>
       <c r="W30" t="n">
-        <v>1465.946337676985</v>
+        <v>1465.672215731278</v>
       </c>
       <c r="X30" t="n">
-        <v>1258.094837471452</v>
+        <v>1257.820715525745</v>
       </c>
       <c r="Y30" t="n">
-        <v>1050.334538706498</v>
+        <v>1050.060416760791</v>
       </c>
     </row>
     <row r="31">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>90.597877284216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C31" t="n">
         <v>46.89499644164432</v>
@@ -6654,19 +6654,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U31" t="n">
-        <v>318.5874281822333</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V31" t="n">
-        <v>318.5874281822333</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W31" t="n">
-        <v>318.5874281822333</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X31" t="n">
-        <v>90.597877284216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y31" t="n">
-        <v>90.597877284216</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>960.8539546480588</v>
+        <v>1310.441992089289</v>
       </c>
       <c r="C32" t="n">
-        <v>960.8539546480588</v>
+        <v>1310.441992089289</v>
       </c>
       <c r="D32" t="n">
-        <v>960.8539546480588</v>
+        <v>1310.441992089289</v>
       </c>
       <c r="E32" t="n">
-        <v>960.8539546480588</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="F32" t="n">
-        <v>960.8539546480588</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G32" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H32" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I32" t="n">
         <v>46.89499644164432</v>
@@ -6727,25 +6727,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S32" t="n">
-        <v>2090.361781958106</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T32" t="n">
-        <v>2090.361781958106</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="U32" t="n">
-        <v>2090.361781958106</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="V32" t="n">
-        <v>2090.361781958106</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="W32" t="n">
-        <v>1737.593126687992</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="X32" t="n">
-        <v>1737.593126687992</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="Y32" t="n">
-        <v>1347.453794712181</v>
+        <v>1697.04183215341</v>
       </c>
     </row>
     <row r="33">
@@ -6755,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.8792202047736</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C33" t="n">
-        <v>814.4261909236466</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D33" t="n">
-        <v>665.4917812623953</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E33" t="n">
-        <v>506.2543262569397</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F33" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G33" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H33" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J33" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K33" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L33" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N33" t="n">
         <v>1637.630816213677</v>
@@ -6803,28 +6803,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R33" t="n">
-        <v>2284.306083296871</v>
+        <v>2338.227766704349</v>
       </c>
       <c r="S33" t="n">
-        <v>2284.306083296871</v>
+        <v>2176.994211604904</v>
       </c>
       <c r="T33" t="n">
-        <v>2284.306083296871</v>
+        <v>1977.451513658935</v>
       </c>
       <c r="U33" t="n">
-        <v>2062.095821155272</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.94371292353</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.706356195328</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.854855989795</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y33" t="n">
-        <v>1157.094557224842</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>318.3514033993496</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="C34" t="n">
-        <v>318.3514033993496</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="D34" t="n">
-        <v>318.3514033993496</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="E34" t="n">
-        <v>318.3514033993496</v>
+        <v>231.9570580120026</v>
       </c>
       <c r="F34" t="n">
-        <v>318.3514033993496</v>
+        <v>85.06711051409221</v>
       </c>
       <c r="G34" t="n">
-        <v>318.3514033993496</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H34" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J34" t="n">
         <v>46.89499644164432</v>
@@ -6888,22 +6888,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T34" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U34" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="V34" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="W34" t="n">
-        <v>318.3514033993496</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="X34" t="n">
-        <v>318.3514033993496</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="Y34" t="n">
-        <v>318.3514033993496</v>
+        <v>379.8701515943957</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1697.62486235271</v>
+        <v>1201.934852436247</v>
       </c>
       <c r="C35" t="n">
-        <v>1328.662345412298</v>
+        <v>1201.934852436247</v>
       </c>
       <c r="D35" t="n">
-        <v>1328.662345412298</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="E35" t="n">
-        <v>1328.662345412298</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F35" t="n">
-        <v>960.8539546480588</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G35" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H35" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I35" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J35" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L35" t="n">
         <v>762.591673824455</v>
@@ -6961,28 +6961,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S35" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T35" t="n">
-        <v>2050.393517622824</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U35" t="n">
-        <v>2050.393517622824</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V35" t="n">
-        <v>2050.393517622824</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W35" t="n">
-        <v>1697.62486235271</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X35" t="n">
-        <v>1697.62486235271</v>
+        <v>1978.67402447618</v>
       </c>
       <c r="Y35" t="n">
-        <v>1697.62486235271</v>
+        <v>1588.534692500368</v>
       </c>
     </row>
     <row r="36">
@@ -6992,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.8792202047736</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C36" t="n">
-        <v>814.4261909236466</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D36" t="n">
-        <v>665.4917812623953</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E36" t="n">
-        <v>506.2543262569397</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F36" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G36" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H36" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I36" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J36" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K36" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L36" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N36" t="n">
-        <v>1637.630816213677</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O36" t="n">
-        <v>2039.343247810003</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P36" t="n">
         <v>2344.749822082216</v>
@@ -7040,28 +7040,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R36" t="n">
-        <v>2344.749822082216</v>
+        <v>2338.227766704349</v>
       </c>
       <c r="S36" t="n">
-        <v>2183.516266982771</v>
+        <v>2176.994211604904</v>
       </c>
       <c r="T36" t="n">
-        <v>2183.516266982771</v>
+        <v>1977.451513658935</v>
       </c>
       <c r="U36" t="n">
-        <v>2062.095821155272</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.94371292353</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.706356195328</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.854855989795</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y36" t="n">
-        <v>1157.094557224842</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>386.9759942927801</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C37" t="n">
-        <v>386.9759942927801</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D37" t="n">
-        <v>386.9759942927801</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E37" t="n">
-        <v>386.9759942927801</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F37" t="n">
-        <v>386.9759942927801</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G37" t="n">
-        <v>386.9759942927801</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H37" t="n">
-        <v>227.9994316161934</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J37" t="n">
         <v>46.89499644164432</v>
@@ -7128,19 +7128,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U37" t="n">
-        <v>607.7685734363102</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V37" t="n">
-        <v>607.7685734363102</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W37" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X37" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y37" t="n">
-        <v>386.9759942927801</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>436.3398040765473</v>
+        <v>790.948947646639</v>
       </c>
       <c r="C38" t="n">
-        <v>67.37728713613558</v>
+        <v>790.948947646639</v>
       </c>
       <c r="D38" t="n">
-        <v>46.89499644164432</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="E38" t="n">
         <v>46.89499644164432</v>
@@ -7174,13 +7174,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L38" t="n">
-        <v>762.5916738244551</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M38" t="n">
         <v>1190.549107376119</v>
@@ -7195,31 +7195,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q38" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R38" t="n">
-        <v>2270.376276991246</v>
+        <v>2288.794797457547</v>
       </c>
       <c r="S38" t="n">
-        <v>2270.376276991246</v>
+        <v>2105.599684595523</v>
       </c>
       <c r="T38" t="n">
-        <v>2270.376276991246</v>
+        <v>1885.616925227101</v>
       </c>
       <c r="U38" t="n">
-        <v>2270.376276991246</v>
+        <v>1885.616925227101</v>
       </c>
       <c r="V38" t="n">
-        <v>1939.313389647675</v>
+        <v>1554.554037883531</v>
       </c>
       <c r="W38" t="n">
-        <v>1586.544734377561</v>
+        <v>1554.554037883531</v>
       </c>
       <c r="X38" t="n">
-        <v>1213.078976116481</v>
+        <v>1181.088279622451</v>
       </c>
       <c r="Y38" t="n">
-        <v>822.9396441406691</v>
+        <v>790.948947646639</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.8792202047736</v>
+        <v>783.3663200545602</v>
       </c>
       <c r="C39" t="n">
-        <v>814.4261909236466</v>
+        <v>608.9132907734332</v>
       </c>
       <c r="D39" t="n">
-        <v>665.4917812623953</v>
+        <v>459.978881112182</v>
       </c>
       <c r="E39" t="n">
-        <v>506.2543262569397</v>
+        <v>459.978881112182</v>
       </c>
       <c r="F39" t="n">
-        <v>359.7197682838247</v>
+        <v>313.4443231390669</v>
       </c>
       <c r="G39" t="n">
         <v>221.6448824165167</v>
@@ -7253,7 +7253,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J39" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K39" t="n">
         <v>121.6684232076319</v>
@@ -7280,25 +7280,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S39" t="n">
-        <v>2123.072528197426</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T39" t="n">
-        <v>1923.529830251457</v>
+        <v>2084.763385350902</v>
       </c>
       <c r="U39" t="n">
-        <v>1695.349365905614</v>
+        <v>1856.582921005059</v>
       </c>
       <c r="V39" t="n">
-        <v>1695.349365905614</v>
+        <v>1621.430812773317</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.706356195328</v>
+        <v>1367.193456045115</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.854855989795</v>
+        <v>1159.341955839582</v>
       </c>
       <c r="Y39" t="n">
-        <v>1157.094557224842</v>
+        <v>951.5816570746283</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>353.0840852304234</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="C40" t="n">
-        <v>184.1479023025165</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="D40" t="n">
-        <v>184.1479023025165</v>
+        <v>168.2347639870139</v>
       </c>
       <c r="E40" t="n">
-        <v>184.1479023025165</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F40" t="n">
         <v>46.89499644164432</v>
@@ -7335,7 +7335,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K40" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L40" t="n">
         <v>194.9121237200978</v>
@@ -7368,16 +7368,16 @@
         <v>607.7685734363102</v>
       </c>
       <c r="V40" t="n">
-        <v>353.0840852304234</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W40" t="n">
-        <v>353.0840852304234</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="X40" t="n">
-        <v>353.0840852304234</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="Y40" t="n">
-        <v>353.0840852304234</v>
+        <v>318.3514033993496</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1159.911464587051</v>
+        <v>1212.631670769908</v>
       </c>
       <c r="C41" t="n">
-        <v>790.948947646639</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="D41" t="n">
-        <v>432.6832490398886</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="E41" t="n">
-        <v>46.89499644164432</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F41" t="n">
         <v>46.89499644164432</v>
@@ -7435,28 +7435,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R41" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S41" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T41" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U41" t="n">
-        <v>1613.411982645667</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V41" t="n">
-        <v>1550.050796562862</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W41" t="n">
-        <v>1550.050796562862</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X41" t="n">
-        <v>1550.050796562862</v>
+        <v>1989.370842809841</v>
       </c>
       <c r="Y41" t="n">
-        <v>1159.911464587051</v>
+        <v>1599.231510834029</v>
       </c>
     </row>
     <row r="42">
@@ -7466,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.8792202047736</v>
+        <v>829.641765199318</v>
       </c>
       <c r="C42" t="n">
-        <v>814.4261909236466</v>
+        <v>655.188735918191</v>
       </c>
       <c r="D42" t="n">
-        <v>665.4917812623953</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="E42" t="n">
         <v>506.2543262569397</v>
@@ -7490,19 +7490,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J42" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K42" t="n">
-        <v>336.0641406922997</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L42" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M42" t="n">
-        <v>1125.906134925503</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N42" t="n">
-        <v>1637.630816213677</v>
+        <v>1640.568559592726</v>
       </c>
       <c r="O42" t="n">
         <v>2039.343247810003</v>
@@ -7517,25 +7517,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S42" t="n">
-        <v>2344.749822082216</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T42" t="n">
-        <v>2145.207124136247</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U42" t="n">
-        <v>1917.026659790404</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V42" t="n">
-        <v>1681.874551558662</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.706356195328</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.854855989795</v>
+        <v>1205.61740098434</v>
       </c>
       <c r="Y42" t="n">
-        <v>1157.094557224842</v>
+        <v>997.857102219386</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1979.7824241432</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C43" t="n">
-        <v>1979.7824241432</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D43" t="n">
-        <v>1979.7824241432</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E43" t="n">
-        <v>1979.7824241432</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F43" t="n">
-        <v>1979.7824241432</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G43" t="n">
-        <v>1979.7824241432</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H43" t="n">
-        <v>1979.7824241432</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I43" t="n">
-        <v>1839.299266942299</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K43" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L43" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M43" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N43" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O43" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q43" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R43" t="n">
-        <v>2149.407627422406</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S43" t="n">
-        <v>1979.7824241432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T43" t="n">
-        <v>1979.7824241432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U43" t="n">
-        <v>1979.7824241432</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V43" t="n">
-        <v>1979.7824241432</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W43" t="n">
-        <v>1979.7824241432</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X43" t="n">
-        <v>1979.7824241432</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y43" t="n">
-        <v>1979.7824241432</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>737.6905774507522</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="C44" t="n">
-        <v>368.7280605103405</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="D44" t="n">
-        <v>46.89499644164432</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="E44" t="n">
-        <v>46.89499644164432</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="F44" t="n">
-        <v>46.89499644164432</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G44" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H44" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.045321891553</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275671</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L44" t="n">
-        <v>762.5916738244546</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M44" t="n">
         <v>1190.549107376118</v>
@@ -7672,28 +7672,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R44" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S44" t="n">
-        <v>2087.181164129222</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T44" t="n">
-        <v>1867.1984047608</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U44" t="n">
-        <v>1867.1984047608</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="V44" t="n">
-        <v>1867.1984047608</v>
+        <v>1356.722640393067</v>
       </c>
       <c r="W44" t="n">
-        <v>1514.429749490686</v>
+        <v>1003.953985122953</v>
       </c>
       <c r="X44" t="n">
-        <v>1514.429749490686</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="Y44" t="n">
-        <v>1124.290417514874</v>
+        <v>960.8539546480588</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.8792202047736</v>
+        <v>850.7918407605284</v>
       </c>
       <c r="C45" t="n">
-        <v>814.4261909236466</v>
+        <v>676.3388114794014</v>
       </c>
       <c r="D45" t="n">
-        <v>665.4917812623953</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E45" t="n">
-        <v>506.2543262569397</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F45" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G45" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H45" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I45" t="n">
         <v>46.89499644164432</v>
@@ -7754,25 +7754,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S45" t="n">
-        <v>2344.749822082216</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T45" t="n">
-        <v>2290.276285501115</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U45" t="n">
-        <v>2062.095821155272</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.94371292353</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.706356195328</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.854855989795</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y45" t="n">
-        <v>1157.094557224842</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="46">
@@ -7833,19 +7833,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S46" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T46" t="n">
-        <v>379.8701515943957</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="U46" t="n">
-        <v>90.68900634031877</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V46" t="n">
-        <v>90.68900634031877</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W46" t="n">
-        <v>90.68900634031877</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X46" t="n">
         <v>46.89499644164432</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
@@ -8312,10 +8312,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>168.5314335381781</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K12" t="n">
-        <v>47.90390621998491</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9017,16 +9017,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>415.7693643006702</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.08896698613913</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>108.5094987082738</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9482,7 +9482,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K21" t="n">
-        <v>261.4978194579837</v>
+        <v>108.5094987082738</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9728,10 +9728,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O24" t="n">
-        <v>177.3009884841359</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>261.4978194579837</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>367.8729277488643</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>415.7693643006697</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,13 +10676,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>415.7693643006697</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q36" t="n">
         <v>57.08896698613911</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K39" t="n">
-        <v>47.90390621998491</v>
+        <v>108.5094987082737</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11147,13 +11147,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>402.132053707116</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>390.8949017221345</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720732</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928321</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.857852141031685</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>163.6851955497072</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.7829317747374</v>
@@ -23317,16 +23317,16 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>134.8575059444343</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23345,19 +23345,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>81.31564129514278</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>38.65383027744605</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23427,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>108.9366819640819</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,10 +23497,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>138.7054404458481</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>38.28158796998827</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23576,10 +23576,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>159.6212195484502</v>
+        <v>42.92542614420694</v>
       </c>
       <c r="T15" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>108.936681964082</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>63.51081263876895</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704632</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R16" t="n">
         <v>152.8143555761653</v>
@@ -23706,7 +23706,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T16" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2893338015361</v>
@@ -23718,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.071044938938314</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>219.1335654015471</v>
       </c>
       <c r="I17" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23816,16 +23816,16 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>77.34102959728585</v>
       </c>
       <c r="E18" t="n">
-        <v>81.31564129514278</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>17.5474909134079</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23974,19 +23974,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>163.6851955497072</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>124.2757766023486</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>268.0214490367536</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24059,16 +24059,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>53.38246657340298</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>105.9637990594094</v>
+        <v>6.924332742584724</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,10 +24144,10 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H22" t="n">
-        <v>69.64773465414295</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J22" t="n">
         <v>54.86879163620181</v>
@@ -24177,19 +24177,19 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S22" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2893338015361</v>
+        <v>232.0763591423484</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,19 +24208,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>30.70896332692212</v>
+        <v>9.086992245455633</v>
       </c>
       <c r="H23" t="n">
         <v>327.0451232326991</v>
@@ -24268,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24293,7 +24293,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>81.31564129514278</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24302,10 +24302,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>14.27705323942853</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24384,7 +24384,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J25" t="n">
         <v>54.86879163620181</v>
@@ -24420,13 +24420,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>150.6426215343276</v>
       </c>
       <c r="W25" t="n">
-        <v>156.6258165422991</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>86.19141261317168</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>327.0451232326991</v>
@@ -24490,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>54.53390812872249</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24533,16 +24533,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24578,7 +24578,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>3.526124683424598</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>78.93978812388787</v>
       </c>
     </row>
     <row r="28">
@@ -24654,22 +24654,22 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>141.0768930746989</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24697,7 +24697,7 @@
         <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>163.6851955497072</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -24736,10 +24736,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>267.0110475422246</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>236.7934918007705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24764,7 +24764,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>105.6924183331604</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24776,7 +24776,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24812,10 +24812,10 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>197.2758902402605</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>123.9809690644819</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24894,16 +24894,16 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24925,10 +24925,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>279.0290631974486</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>3.148811650595633</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>217.7829317747374</v>
@@ -24979,7 +24979,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25010,13 +25010,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>53.38246657340287</v>
       </c>
       <c r="S33" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>5.910500182201503</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25083,22 +25083,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4465608509556</v>
+        <v>129.6561679192322</v>
       </c>
       <c r="H34" t="n">
-        <v>82.59207142678602</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T34" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2893338015361</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>42.74573888511463</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S35" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
         <v>251.2485578939812</v>
@@ -25216,13 +25216,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>7.316061048493111</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25247,13 +25247,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749142</v>
+        <v>53.38246657340287</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>105.6924183331604</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25329,13 +25329,13 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
-        <v>14.65372644228985</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2893338015361</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>334.4055738331366</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>18.23433526163788</v>
       </c>
       <c r="S38" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2485578939812</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25478,13 +25478,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>45.8126906933102</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25529,10 +25529,10 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>130.2784035477363</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>26.30759277665329</v>
       </c>
       <c r="F40" t="n">
-        <v>9.540671220667832</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.4465608509556</v>
@@ -25569,7 +25569,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J40" t="n">
         <v>54.86879163620181</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R40" t="n">
         <v>152.8143555761653</v>
@@ -25608,10 +25608,10 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>414.089049841944</v>
@@ -25675,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
-        <v>265.0246842481582</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>17.90591119881771</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25715,7 +25715,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25757,7 +25757,7 @@
         <v>59.83930139749141</v>
       </c>
       <c r="S42" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25769,10 +25769,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>143.6184697512196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>145.5946088442689</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25806,10 +25806,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,25 +25830,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S43" t="n">
-        <v>46.59991698252631</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T43" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2893338015361</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>36.06830819267373</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -25921,19 +25921,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>327.0620705083237</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>69.66791759408824</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25964,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,10 +25994,10 @@
         <v>59.83930139749141</v>
       </c>
       <c r="S45" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26073,22 +26073,22 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S46" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>171.4064629643077</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>182.3535855893494</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>607892.2889631717</v>
+        <v>607892.2889631713</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>607892.2889631714</v>
+        <v>607892.2889631713</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>607892.2889631714</v>
+        <v>607892.2889631713</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>607892.2889631715</v>
+        <v>607892.2889631714</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>607892.2889631714</v>
+        <v>607892.2889631713</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>607892.2889631715</v>
+        <v>607892.2889631717</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>607892.2889631715</v>
+        <v>607892.2889631714</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>607892.2889631713</v>
+        <v>607892.2889631715</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>607892.2889631717</v>
+        <v>607892.2889631713</v>
       </c>
     </row>
     <row r="16">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="E2" t="n">
-        <v>343688.92969348</v>
+        <v>343688.9296934799</v>
       </c>
       <c r="F2" t="n">
         <v>343688.92969348</v>
@@ -26331,7 +26331,7 @@
         <v>343688.92969348</v>
       </c>
       <c r="H2" t="n">
-        <v>343688.92969348</v>
+        <v>343688.9296934798</v>
       </c>
       <c r="I2" t="n">
         <v>343688.92969348</v>
@@ -26340,22 +26340,22 @@
         <v>343688.92969348</v>
       </c>
       <c r="K2" t="n">
-        <v>343688.9296934798</v>
+        <v>343688.92969348</v>
       </c>
       <c r="L2" t="n">
-        <v>343688.9296934801</v>
+        <v>343688.9296934799</v>
       </c>
       <c r="M2" t="n">
-        <v>343688.9296934798</v>
+        <v>343688.92969348</v>
       </c>
       <c r="N2" t="n">
         <v>343688.92969348</v>
       </c>
       <c r="O2" t="n">
-        <v>343688.9296934799</v>
+        <v>343688.92969348</v>
       </c>
       <c r="P2" t="n">
-        <v>343688.92969348</v>
+        <v>343688.9296934797</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007602</v>
+        <v>86018.533820076</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100398.6542693961</v>
+        <v>100398.654269396</v>
       </c>
       <c r="C6" t="n">
-        <v>181168.0858009438</v>
+        <v>181168.0858009437</v>
       </c>
       <c r="D6" t="n">
-        <v>181168.0858009438</v>
+        <v>181168.0858009437</v>
       </c>
       <c r="E6" t="n">
-        <v>-70855.15507853824</v>
+        <v>-78162.39433693462</v>
       </c>
       <c r="F6" t="n">
-        <v>274757.1877004144</v>
+        <v>267449.9484420182</v>
       </c>
       <c r="G6" t="n">
-        <v>274757.1877004144</v>
+        <v>267449.9484420181</v>
       </c>
       <c r="H6" t="n">
-        <v>274757.1877004145</v>
+        <v>267449.948442018</v>
       </c>
       <c r="I6" t="n">
-        <v>274757.1877004144</v>
+        <v>267449.9484420182</v>
       </c>
       <c r="J6" t="n">
-        <v>211697.2451013083</v>
+        <v>204390.005842912</v>
       </c>
       <c r="K6" t="n">
-        <v>274757.1877004143</v>
+        <v>267449.9484420182</v>
       </c>
       <c r="L6" t="n">
-        <v>274757.1877004146</v>
+        <v>267449.9484420181</v>
       </c>
       <c r="M6" t="n">
-        <v>188738.6538803382</v>
+        <v>181431.4146219421</v>
       </c>
       <c r="N6" t="n">
-        <v>274757.1877004144</v>
+        <v>267449.9484420182</v>
       </c>
       <c r="O6" t="n">
-        <v>274757.1877004144</v>
+        <v>267449.9484420181</v>
       </c>
       <c r="P6" t="n">
-        <v>274757.1877004144</v>
+        <v>267449.9484420178</v>
       </c>
     </row>
   </sheetData>
@@ -26773,7 +26773,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="N3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="O3" t="n">
         <v>301.9048087062787</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>292.4420370983682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27402,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,7 +27423,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>249.5514047743602</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27463,25 +27463,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>27.2617907027001</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27511,19 +27511,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>214.2953740770921</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>133.7786181105064</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27560,10 +27560,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>155.8535025062293</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27627,19 +27627,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>207.0637161124945</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>148.9048724285834</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27703,22 +27703,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27745,10 +27745,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>89.71732724963313</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27757,13 +27757,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>28.14497471274697</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27824,7 +27824,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>115.8205630125936</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>170.4484560200386</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27867,7 +27867,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>330.8829497359738</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27897,13 +27897,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27937,10 +27937,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>121.2058486888432</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27955,7 +27955,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27991,13 +27991,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>183.5688363187957</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>59.05078607424915</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28061,7 +28061,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -31995,25 +31995,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I14" t="n">
-        <v>46.79069402069872</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J14" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K14" t="n">
-        <v>154.3856233586785</v>
+        <v>154.3856233586786</v>
       </c>
       <c r="L14" t="n">
-        <v>191.5290174870997</v>
+        <v>191.5290174870998</v>
       </c>
       <c r="M14" t="n">
-        <v>213.1129356452114</v>
+        <v>213.1129356452115</v>
       </c>
       <c r="N14" t="n">
-        <v>216.5613257466655</v>
+        <v>216.5613257466656</v>
       </c>
       <c r="O14" t="n">
-        <v>204.4927189463718</v>
+        <v>204.4927189463719</v>
       </c>
       <c r="P14" t="n">
         <v>174.5298045144673</v>
@@ -32022,16 +32022,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R14" t="n">
-        <v>76.23930830108854</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S14" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T14" t="n">
-        <v>5.312917789393906</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09709501385528548</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.649380154575769</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H15" t="n">
-        <v>6.271645177087033</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I15" t="n">
-        <v>22.35804479570082</v>
+        <v>22.35804479570083</v>
       </c>
       <c r="J15" t="n">
-        <v>61.35218381454668</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K15" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L15" t="n">
-        <v>140.9980901415502</v>
+        <v>140.9980901415503</v>
       </c>
       <c r="M15" t="n">
         <v>164.5381207449218</v>
@@ -32098,7 +32098,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.89280709988239</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R15" t="n">
         <v>40.31853275515171</v>
@@ -32107,10 +32107,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T15" t="n">
-        <v>2.61745772831198</v>
+        <v>2.617457728311981</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04272237859051114</v>
+        <v>0.04272237859051115</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5444185075031253</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H16" t="n">
-        <v>4.840375457618698</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I16" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J16" t="n">
-        <v>38.49038848047095</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K16" t="n">
-        <v>63.2515320535449</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L16" t="n">
-        <v>80.94018428823738</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M16" t="n">
-        <v>85.34007568069443</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N16" t="n">
-        <v>83.31087942545558</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O16" t="n">
-        <v>76.95108140598722</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P16" t="n">
-        <v>65.84494385292341</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.58762611464806</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R16" t="n">
-        <v>24.47903580100415</v>
+        <v>24.47903580100416</v>
       </c>
       <c r="S16" t="n">
-        <v>9.487729808031734</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T16" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02969555495471595</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I38" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J38" t="n">
         <v>103.0102241525006</v>
@@ -33912,22 +33912,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P38" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q38" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R38" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S38" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T38" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H39" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I39" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J39" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K39" t="n">
         <v>104.8606541711232</v>
@@ -33982,25 +33982,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M39" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N39" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O39" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P39" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q39" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R39" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S39" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T39" t="n">
         <v>2.617457728311981</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H40" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I40" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J40" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K40" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L40" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M40" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N40" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O40" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P40" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q40" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R40" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S40" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T40" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>34.55702612384782</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L12" t="n">
         <v>373.2840556651353</v>
@@ -35506,10 +35506,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P12" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.06093479788805</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K14" t="n">
         <v>258.4411848848628</v>
@@ -35655,13 +35655,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M14" t="n">
-        <v>432.2802359107711</v>
+        <v>432.2802359107712</v>
       </c>
       <c r="N14" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O14" t="n">
-        <v>355.1946887874304</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P14" t="n">
         <v>265.0955169306804</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.60559248828882</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>231.4844522093428</v>
       </c>
       <c r="L15" t="n">
-        <v>373.2840556651352</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M15" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N15" t="n">
-        <v>453.3206074199182</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O15" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P15" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>40.98204022766205</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L16" t="n">
         <v>108.5302095485535</v>
@@ -35822,7 +35822,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P16" t="n">
-        <v>63.1235031178169</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K18" t="n">
-        <v>75.52871390503797</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L18" t="n">
         <v>373.2840556651353</v>
@@ -35974,7 +35974,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N18" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O18" t="n">
         <v>405.7701329255822</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>228.5170346547479</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651353</v>
@@ -36220,7 +36220,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36448,10 +36448,10 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N24" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O24" t="n">
-        <v>189.2088021329886</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P24" t="n">
         <v>308.4914891638518</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K27" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651353</v>
@@ -36685,7 +36685,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N27" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O27" t="n">
         <v>405.7701329255822</v>
@@ -36694,7 +36694,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K30" t="n">
         <v>231.4844522093428</v>
       </c>
       <c r="L30" t="n">
-        <v>370.3166381105403</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M30" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N30" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O30" t="n">
         <v>405.7701329255822</v>
@@ -36931,7 +36931,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651353</v>
@@ -37159,7 +37159,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N33" t="n">
-        <v>453.3206074199177</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O33" t="n">
         <v>405.7701329255822</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>231.4844522093428</v>
@@ -37396,13 +37396,13 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N36" t="n">
-        <v>453.3206074199177</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O36" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P36" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K38" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L38" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M38" t="n">
         <v>432.2802359107712</v>
@@ -37557,13 +37557,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O38" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P38" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q38" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>14.92312141674913</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
@@ -37636,7 +37636,7 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O39" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P39" t="n">
         <v>308.4914891638518</v>
@@ -37703,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L40" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M40" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N40" t="n">
         <v>127.4430518046842</v>
@@ -37718,7 +37718,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P40" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>231.4844522093429</v>
@@ -37867,13 +37867,13 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M42" t="n">
-        <v>424.5361405300196</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N42" t="n">
         <v>516.8936174628016</v>
       </c>
       <c r="O42" t="n">
-        <v>405.7701329255823</v>
+        <v>402.8027153709872</v>
       </c>
       <c r="P42" t="n">
         <v>308.4914891638518</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>91.06093479788754</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K44" t="n">
         <v>258.4411848848628</v>
@@ -38025,7 +38025,7 @@
         <v>373.423817067563</v>
       </c>
       <c r="M44" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107708</v>
       </c>
       <c r="N44" t="n">
         <v>424.4951865620588</v>
